--- a/محلي.xlsx
+++ b/محلي.xlsx
@@ -338,9 +338,6 @@
     <t>عباس محمد</t>
   </si>
   <si>
-    <t>محمود قعود</t>
-  </si>
-  <si>
     <t>مصاريف اخرى</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>صابر الميكانيكي بحيرة</t>
+  </si>
+  <si>
+    <t>محمد قعود</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1056,9 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,9 +1070,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2639,10 +2639,10 @@
   <dimension ref="A1:N474"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F355" sqref="F355"/>
+      <selection pane="bottomRight" activeCell="J70" sqref="J70:J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2668,15 +2668,15 @@
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K2" s="54">
         <f>SUBTOTAL(9,Table5[الاجمالي])</f>
-        <v>3316291</v>
+        <v>3396191</v>
       </c>
       <c r="L2" s="54">
         <f>SUBTOTAL(9,Table5[المبلغ المدفوع])</f>
-        <v>791305</v>
+        <v>1006305</v>
       </c>
       <c r="M2" s="54">
         <f>SUBTOTAL(9,Table5[متبقي])</f>
-        <v>2524986</v>
+        <v>2389886</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,7 +2705,7 @@
         <v>52</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="55" t="s">
         <v>16</v>
@@ -9540,7 +9540,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="64" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C189" s="57">
         <v>45325</v>
@@ -9569,13 +9569,15 @@
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
         <v>280500</v>
       </c>
-      <c r="L189" s="58"/>
+      <c r="L189" s="58">
+        <v>215000</v>
+      </c>
       <c r="M189" s="63">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>280500</v>
+        <v>65500</v>
       </c>
       <c r="N189" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -9584,7 +9586,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="64" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C190" s="57">
         <v>45325</v>
@@ -9644,7 +9646,10 @@
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
       </c>
-      <c r="N191" s="61"/>
+      <c r="N191" s="61">
+        <f>2000/5</f>
+        <v>400</v>
+      </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="53">
@@ -9718,7 +9723,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C194" s="57">
         <v>45326</v>
@@ -9758,7 +9763,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C195" s="57">
         <v>45326</v>
@@ -9798,7 +9803,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C196" s="57">
         <v>45326</v>
@@ -10014,7 +10019,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C202" s="57">
         <v>45326</v>
@@ -10057,7 +10062,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C203" s="57">
         <v>45326</v>
@@ -10100,7 +10105,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C204" s="57">
         <v>45326</v>
@@ -10391,7 +10396,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C212" s="57">
         <v>45327</v>
@@ -10559,7 +10564,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C217" s="57">
         <v>45327</v>
@@ -10695,7 +10700,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C221" s="57">
         <v>45328</v>
@@ -11059,7 +11064,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C231" s="57">
         <v>45328</v>
@@ -11099,7 +11104,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C232" s="57">
         <v>45328</v>
@@ -11139,7 +11144,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C233" s="57">
         <v>45328</v>
@@ -11910,7 +11915,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C255" s="57">
         <v>45333</v>
@@ -11953,7 +11958,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C256" s="57">
         <v>45333</v>
@@ -12266,7 +12271,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C265" s="57">
         <v>45338</v>
@@ -12309,7 +12314,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C266" s="57">
         <v>45338</v>
@@ -12380,7 +12385,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C268" s="57">
         <v>45338</v>
@@ -12423,7 +12428,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C269" s="57">
         <v>45338</v>
@@ -12466,7 +12471,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C270" s="57">
         <v>45338</v>
@@ -12509,7 +12514,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C271" s="57">
         <v>45338</v>
@@ -12545,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="N271" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -12582,7 +12587,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C273" s="57">
         <v>45339</v>
@@ -12625,7 +12630,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C274" s="57">
         <v>45339</v>
@@ -12844,7 +12849,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C280" s="57">
         <v>45339</v>
@@ -12884,7 +12889,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C281" s="57">
         <v>45339</v>
@@ -12924,7 +12929,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C282" s="57">
         <v>45339</v>
@@ -13370,7 +13375,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C294" s="57">
         <v>45339</v>
@@ -13410,7 +13415,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C295" s="57">
         <v>45339</v>
@@ -13624,7 +13629,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C301" s="57">
         <v>45339</v>
@@ -13666,7 +13671,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C302" s="57">
         <v>45339</v>
@@ -13736,7 +13741,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C304" s="57">
         <v>45341</v>
@@ -13776,7 +13781,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C305" s="57">
         <v>45341</v>
@@ -13816,7 +13821,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C306" s="57">
         <v>45341</v>
@@ -13856,7 +13861,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C307" s="57">
         <v>45341</v>
@@ -13924,7 +13929,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C309" s="57">
         <v>45341</v>
@@ -13995,7 +14000,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C311" s="57">
         <v>45342</v>
@@ -14063,7 +14068,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C313" s="57">
         <v>45343</v>
@@ -14103,7 +14108,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C314" s="57">
         <v>45343</v>
@@ -14173,7 +14178,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C316" s="57">
         <v>45343</v>
@@ -14241,7 +14246,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C318" s="57">
         <v>45343</v>
@@ -14373,7 +14378,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C322" s="57">
         <v>45343</v>
@@ -14441,7 +14446,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C324" s="77">
         <v>45343</v>
@@ -14481,7 +14486,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C325" s="77">
         <v>45343</v>
@@ -14549,7 +14554,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C327" s="77">
         <v>45343</v>
@@ -14617,7 +14622,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C329" s="77">
         <v>45343</v>
@@ -14688,7 +14693,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C331" s="77">
         <v>45345</v>
@@ -15163,11 +15168,11 @@
       </c>
       <c r="H343" s="61"/>
       <c r="I343" s="61"/>
-      <c r="J343" s="83">
+      <c r="J343" s="79">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
         <v>50</v>
       </c>
-      <c r="K343" s="83">
+      <c r="K343" s="79">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
         <v>2000</v>
       </c>
@@ -15212,7 +15217,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C345" s="77">
         <v>45345</v>
@@ -15252,7 +15257,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C346" s="77">
         <v>45345</v>
@@ -15292,7 +15297,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C347" s="77">
         <v>45345</v>
@@ -15360,7 +15365,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C349" s="77">
         <v>45345</v>
@@ -15428,7 +15433,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C351" s="77">
         <v>45345</v>
@@ -15496,7 +15501,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C353" s="77">
         <v>45346</v>
@@ -15743,7 +15748,7 @@
         <v>357</v>
       </c>
       <c r="B360" s="76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C360" s="77"/>
       <c r="D360" s="76"/>
@@ -15803,23 +15808,29 @@
       <c r="B362" s="76"/>
       <c r="C362" s="77"/>
       <c r="D362" s="76"/>
-      <c r="E362" s="61"/>
-      <c r="F362" s="78"/>
-      <c r="G362" s="61"/>
+      <c r="E362" s="61">
+        <v>400</v>
+      </c>
+      <c r="F362" s="78">
+        <v>5</v>
+      </c>
+      <c r="G362" s="61">
+        <v>39</v>
+      </c>
       <c r="H362" s="61"/>
       <c r="I362" s="61"/>
       <c r="J362" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K362" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="L362" s="61"/>
       <c r="M362" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="N362" s="61"/>
     </row>
@@ -15831,23 +15842,29 @@
       <c r="B363" s="76"/>
       <c r="C363" s="77"/>
       <c r="D363" s="76"/>
-      <c r="E363" s="61"/>
-      <c r="F363" s="78"/>
-      <c r="G363" s="61"/>
+      <c r="E363" s="61">
+        <v>50</v>
+      </c>
+      <c r="F363" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G363" s="61">
+        <v>38</v>
+      </c>
       <c r="H363" s="61"/>
       <c r="I363" s="61"/>
       <c r="J363" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K363" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="L363" s="61"/>
       <c r="M363" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="N363" s="61"/>
     </row>
@@ -19015,7 +19032,7 @@
         <v>58</v>
       </c>
       <c r="I5" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" s="66" t="s">
         <v>59</v>
@@ -19689,11 +19706,11 @@
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="19">
         <f>SUM(D4:D20)</f>
         <v>227367</v>
@@ -20797,11 +20814,11 @@
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="26"/>
-      <c r="N3" s="81">
+      <c r="N3" s="82">
         <f>N4+O4</f>
         <v>2227432</v>
       </c>
-      <c r="O3" s="82"/>
+      <c r="O3" s="83"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="27">

--- a/محلي.xlsx
+++ b/محلي.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="145">
   <si>
     <t>حساب السيد / محمد صابر</t>
   </si>
@@ -380,9 +380,6 @@
     <t>سامي العقول</t>
   </si>
   <si>
-    <t>عمر ابوزايد</t>
-  </si>
-  <si>
     <t>ام شمس / مركز بدر</t>
   </si>
   <si>
@@ -432,6 +429,66 @@
   </si>
   <si>
     <t>محمد قعود</t>
+  </si>
+  <si>
+    <t>عبده بحيرة ميكانيكي</t>
+  </si>
+  <si>
+    <t>طارق شبكات</t>
+  </si>
+  <si>
+    <t>وليد المنيا</t>
+  </si>
+  <si>
+    <t>محمد شعبان</t>
+  </si>
+  <si>
+    <t>محمد بطيخ</t>
+  </si>
+  <si>
+    <t>محمد توفيق</t>
+  </si>
+  <si>
+    <t>ابراهيم احمد سليم</t>
+  </si>
+  <si>
+    <t>محمود منوفية</t>
+  </si>
+  <si>
+    <t>صبري راشد</t>
+  </si>
+  <si>
+    <t>من حساب متأخر</t>
+  </si>
+  <si>
+    <t>عمر ابوزيد</t>
+  </si>
+  <si>
+    <t>حسين الازهري</t>
+  </si>
+  <si>
+    <t>عبدالله الشاعر</t>
+  </si>
+  <si>
+    <t>مصطفى المنوفي</t>
+  </si>
+  <si>
+    <t>2565 الاجمالي في الوصل</t>
+  </si>
+  <si>
+    <t>احمد ماهر</t>
+  </si>
+  <si>
+    <t>صلاح موسى</t>
+  </si>
+  <si>
+    <t>نخل</t>
+  </si>
+  <si>
+    <t>اجمالي الوصل خطأ</t>
+  </si>
+  <si>
+    <t>وادي</t>
   </si>
 </sst>
 </file>
@@ -544,7 +601,7 @@
       <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +641,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1070,6 +1133,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2270,8 +2342,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:N474" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A3:N474"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:N618" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A3:N618"/>
   <tableColumns count="14">
     <tableColumn id="1" name="م" dataDxfId="43"/>
     <tableColumn id="2" name="الاسم" dataDxfId="42"/>
@@ -2636,13 +2708,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N618"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C490" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70:J111"/>
+      <selection pane="bottomRight" activeCell="D514" sqref="D514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2658,8 +2730,7 @@
     <col min="9" max="9" width="9.25" style="53" customWidth="1"/>
     <col min="10" max="10" width="11.125" style="53" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.375" style="53" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.625" style="53" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="53"/>
   </cols>
@@ -2668,15 +2739,15 @@
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K2" s="54">
         <f>SUBTOTAL(9,Table5[الاجمالي])</f>
-        <v>3396191</v>
+        <v>4081510</v>
       </c>
       <c r="L2" s="54">
         <f>SUBTOTAL(9,Table5[المبلغ المدفوع])</f>
-        <v>1006305</v>
+        <v>1421926</v>
       </c>
       <c r="M2" s="54">
         <f>SUBTOTAL(9,Table5[متبقي])</f>
-        <v>2389886</v>
+        <v>2659584</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -9540,7 +9611,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C189" s="57">
         <v>45325</v>
@@ -9586,7 +9657,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C190" s="57">
         <v>45325</v>
@@ -12849,7 +12920,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="56" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C280" s="57">
         <v>45339</v>
@@ -12889,7 +12960,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="56" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C281" s="57">
         <v>45339</v>
@@ -12929,7 +13000,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="56" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C282" s="57">
         <v>45339</v>
@@ -13214,10 +13285,12 @@
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
         <v>4560</v>
       </c>
-      <c r="L289" s="58"/>
+      <c r="L289" s="58">
+        <v>10000</v>
+      </c>
       <c r="M289" s="58">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>4560</v>
+        <v>-5440</v>
       </c>
       <c r="N289" s="61"/>
     </row>
@@ -13254,10 +13327,12 @@
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
         <v>2850</v>
       </c>
-      <c r="L290" s="58"/>
+      <c r="L290" s="58">
+        <v>60000</v>
+      </c>
       <c r="M290" s="58">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>2850</v>
+        <v>-57150</v>
       </c>
       <c r="N290" s="61"/>
     </row>
@@ -13375,7 +13450,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C294" s="57">
         <v>45339</v>
@@ -13415,7 +13490,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C295" s="57">
         <v>45339</v>
@@ -13629,7 +13704,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C301" s="57">
         <v>45339</v>
@@ -13671,7 +13746,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C302" s="57">
         <v>45339</v>
@@ -13741,7 +13816,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C304" s="57">
         <v>45341</v>
@@ -13781,7 +13856,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C305" s="57">
         <v>45341</v>
@@ -13821,7 +13896,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C306" s="57">
         <v>45341</v>
@@ -13861,7 +13936,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C307" s="57">
         <v>45341</v>
@@ -13929,7 +14004,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C309" s="57">
         <v>45341</v>
@@ -14000,7 +14075,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C311" s="57">
         <v>45342</v>
@@ -14068,7 +14143,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C313" s="57">
         <v>45343</v>
@@ -14108,7 +14183,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C314" s="57">
         <v>45343</v>
@@ -14178,7 +14253,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C316" s="57">
         <v>45343</v>
@@ -14246,7 +14321,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C318" s="57">
         <v>45343</v>
@@ -14378,7 +14453,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C322" s="57">
         <v>45343</v>
@@ -14554,7 +14629,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C327" s="77">
         <v>45343</v>
@@ -14622,7 +14697,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C329" s="77">
         <v>45343</v>
@@ -14693,7 +14768,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C331" s="77">
         <v>45345</v>
@@ -15217,7 +15292,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C345" s="77">
         <v>45345</v>
@@ -15257,7 +15332,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C346" s="77">
         <v>45345</v>
@@ -15297,7 +15372,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C347" s="77">
         <v>45345</v>
@@ -15365,7 +15440,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C349" s="77">
         <v>45345</v>
@@ -15433,7 +15508,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C351" s="77">
         <v>45345</v>
@@ -15501,7 +15576,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C353" s="77">
         <v>45346</v>
@@ -15748,27 +15823,37 @@
         <v>357</v>
       </c>
       <c r="B360" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="C360" s="77"/>
-      <c r="D360" s="76"/>
-      <c r="E360" s="61"/>
-      <c r="F360" s="78"/>
-      <c r="G360" s="61"/>
+        <v>123</v>
+      </c>
+      <c r="C360" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D360" s="76">
+        <v>325</v>
+      </c>
+      <c r="E360" s="61">
+        <v>65</v>
+      </c>
+      <c r="F360" s="78">
+        <v>5</v>
+      </c>
+      <c r="G360" s="61">
+        <v>39</v>
+      </c>
       <c r="H360" s="61"/>
       <c r="I360" s="61"/>
       <c r="J360" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="K360" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>12675</v>
       </c>
       <c r="L360" s="61"/>
       <c r="M360" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>12675</v>
       </c>
       <c r="N360" s="61"/>
     </row>
@@ -15777,26 +15862,38 @@
         <f t="shared" si="5"/>
         <v>358</v>
       </c>
-      <c r="B361" s="76"/>
-      <c r="C361" s="77"/>
-      <c r="D361" s="76"/>
-      <c r="E361" s="61"/>
-      <c r="F361" s="78"/>
-      <c r="G361" s="61"/>
+      <c r="B361" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C361" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D361" s="76">
+        <v>325</v>
+      </c>
+      <c r="E361" s="61">
+        <v>5</v>
+      </c>
+      <c r="F361" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G361" s="61">
+        <v>38</v>
+      </c>
       <c r="H361" s="61"/>
       <c r="I361" s="61"/>
       <c r="J361" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K361" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L361" s="61"/>
       <c r="M361" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N361" s="61"/>
     </row>
@@ -15808,29 +15905,23 @@
       <c r="B362" s="76"/>
       <c r="C362" s="77"/>
       <c r="D362" s="76"/>
-      <c r="E362" s="61">
-        <v>400</v>
-      </c>
-      <c r="F362" s="78">
-        <v>5</v>
-      </c>
-      <c r="G362" s="61">
-        <v>39</v>
-      </c>
+      <c r="E362" s="61"/>
+      <c r="F362" s="78"/>
+      <c r="G362" s="61"/>
       <c r="H362" s="61"/>
       <c r="I362" s="61"/>
       <c r="J362" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K362" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="L362" s="61"/>
       <c r="M362" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>78000</v>
+        <v>0</v>
       </c>
       <c r="N362" s="61"/>
     </row>
@@ -15839,17 +15930,23 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="B363" s="76"/>
-      <c r="C363" s="77"/>
-      <c r="D363" s="76"/>
+      <c r="B363" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C363" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D363" s="76">
+        <v>326</v>
+      </c>
       <c r="E363" s="61">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F363" s="78">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="G363" s="61">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H363" s="61"/>
       <c r="I363" s="61"/>
@@ -15859,12 +15956,15 @@
       </c>
       <c r="K363" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>1900</v>
-      </c>
-      <c r="L363" s="61"/>
+        <v>1600</v>
+      </c>
+      <c r="L363" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>1600</v>
+      </c>
       <c r="M363" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="N363" s="61"/>
     </row>
@@ -15873,23 +15973,38 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
-      <c r="B364" s="76"/>
-      <c r="C364" s="77"/>
-      <c r="D364" s="76"/>
-      <c r="E364" s="61"/>
-      <c r="F364" s="78"/>
-      <c r="G364" s="61"/>
+      <c r="B364" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C364" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D364" s="76">
+        <v>326</v>
+      </c>
+      <c r="E364" s="61">
+        <v>10</v>
+      </c>
+      <c r="F364" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G364" s="61">
+        <v>37</v>
+      </c>
       <c r="H364" s="61"/>
       <c r="I364" s="61"/>
       <c r="J364" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K364" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L364" s="61"/>
+        <v>370</v>
+      </c>
+      <c r="L364" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>370</v>
+      </c>
       <c r="M364" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -15929,23 +16044,38 @@
         <f t="shared" si="5"/>
         <v>363</v>
       </c>
-      <c r="B366" s="76"/>
-      <c r="C366" s="77"/>
-      <c r="D366" s="76"/>
-      <c r="E366" s="61"/>
-      <c r="F366" s="78"/>
-      <c r="G366" s="61"/>
+      <c r="B366" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C366" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D366" s="76">
+        <v>327</v>
+      </c>
+      <c r="E366" s="61">
+        <v>5</v>
+      </c>
+      <c r="F366" s="78">
+        <v>5</v>
+      </c>
+      <c r="G366" s="61">
+        <v>40</v>
+      </c>
       <c r="H366" s="61"/>
       <c r="I366" s="61"/>
       <c r="J366" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K366" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L366" s="61"/>
+        <v>1000</v>
+      </c>
+      <c r="L366" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>1000</v>
+      </c>
       <c r="M366" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -15957,23 +16087,38 @@
         <f t="shared" si="5"/>
         <v>364</v>
       </c>
-      <c r="B367" s="76"/>
-      <c r="C367" s="77"/>
-      <c r="D367" s="76"/>
-      <c r="E367" s="61"/>
-      <c r="F367" s="78"/>
-      <c r="G367" s="61"/>
+      <c r="B367" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C367" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D367" s="76">
+        <v>327</v>
+      </c>
+      <c r="E367" s="61">
+        <v>10</v>
+      </c>
+      <c r="F367" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G367" s="61">
+        <v>37</v>
+      </c>
       <c r="H367" s="61"/>
       <c r="I367" s="61"/>
       <c r="J367" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K367" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L367" s="61"/>
+        <v>370</v>
+      </c>
+      <c r="L367" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>370</v>
+      </c>
       <c r="M367" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -15985,23 +16130,38 @@
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="B368" s="76"/>
-      <c r="C368" s="77"/>
-      <c r="D368" s="76"/>
-      <c r="E368" s="61"/>
-      <c r="F368" s="78"/>
-      <c r="G368" s="61"/>
+      <c r="B368" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C368" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D368" s="76">
+        <v>327</v>
+      </c>
+      <c r="E368" s="61">
+        <v>6</v>
+      </c>
+      <c r="F368" s="78">
+        <v>5</v>
+      </c>
+      <c r="G368" s="61">
+        <v>40</v>
+      </c>
       <c r="H368" s="61"/>
       <c r="I368" s="61"/>
       <c r="J368" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K368" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L368" s="61"/>
+        <v>1200</v>
+      </c>
+      <c r="L368" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>1200</v>
+      </c>
       <c r="M368" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16013,23 +16173,38 @@
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="B369" s="76"/>
-      <c r="C369" s="77"/>
-      <c r="D369" s="76"/>
-      <c r="E369" s="61"/>
-      <c r="F369" s="78"/>
-      <c r="G369" s="61"/>
+      <c r="B369" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C369" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D369" s="76">
+        <v>327</v>
+      </c>
+      <c r="E369" s="61">
+        <v>10</v>
+      </c>
+      <c r="F369" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G369" s="61">
+        <v>38</v>
+      </c>
       <c r="H369" s="61"/>
       <c r="I369" s="61"/>
       <c r="J369" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K369" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L369" s="61"/>
+        <v>380</v>
+      </c>
+      <c r="L369" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>380</v>
+      </c>
       <c r="M369" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16069,23 +16244,38 @@
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="B371" s="76"/>
-      <c r="C371" s="77"/>
-      <c r="D371" s="76"/>
-      <c r="E371" s="61"/>
-      <c r="F371" s="78"/>
-      <c r="G371" s="61"/>
+      <c r="B371" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C371" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D371" s="76">
+        <v>328</v>
+      </c>
+      <c r="E371" s="61">
+        <v>100</v>
+      </c>
+      <c r="F371" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G371" s="61">
+        <v>38</v>
+      </c>
       <c r="H371" s="61"/>
       <c r="I371" s="61"/>
       <c r="J371" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K371" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L371" s="61"/>
+        <v>3800</v>
+      </c>
+      <c r="L371" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>3800</v>
+      </c>
       <c r="M371" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16097,23 +16287,38 @@
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="B372" s="76"/>
-      <c r="C372" s="77"/>
-      <c r="D372" s="76"/>
-      <c r="E372" s="61"/>
-      <c r="F372" s="78"/>
-      <c r="G372" s="61"/>
+      <c r="B372" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C372" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D372" s="76">
+        <v>328</v>
+      </c>
+      <c r="E372" s="61">
+        <v>5</v>
+      </c>
+      <c r="F372" s="78">
+        <v>5</v>
+      </c>
+      <c r="G372" s="61">
+        <v>40</v>
+      </c>
       <c r="H372" s="61"/>
       <c r="I372" s="61"/>
       <c r="J372" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K372" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L372" s="61"/>
+        <v>1000</v>
+      </c>
+      <c r="L372" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>1000</v>
+      </c>
       <c r="M372" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16153,26 +16358,40 @@
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
-      <c r="B374" s="76"/>
-      <c r="C374" s="77"/>
-      <c r="D374" s="76"/>
-      <c r="E374" s="61"/>
-      <c r="F374" s="78"/>
-      <c r="G374" s="61"/>
+      <c r="B374" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C374" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D374" s="76">
+        <v>329</v>
+      </c>
+      <c r="E374" s="61">
+        <v>30</v>
+      </c>
+      <c r="F374" s="78">
+        <v>5</v>
+      </c>
+      <c r="G374" s="61">
+        <v>45</v>
+      </c>
       <c r="H374" s="61"/>
       <c r="I374" s="61"/>
       <c r="J374" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K374" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L374" s="61"/>
+        <v>6750</v>
+      </c>
+      <c r="L374" s="61">
+        <v>105000</v>
+      </c>
       <c r="M374" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>-98250</v>
       </c>
       <c r="N374" s="61"/>
     </row>
@@ -16181,26 +16400,38 @@
         <f t="shared" si="5"/>
         <v>372</v>
       </c>
-      <c r="B375" s="76"/>
-      <c r="C375" s="77"/>
-      <c r="D375" s="76"/>
-      <c r="E375" s="61"/>
-      <c r="F375" s="78"/>
-      <c r="G375" s="61"/>
+      <c r="B375" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C375" s="77">
+        <v>45346</v>
+      </c>
+      <c r="D375" s="76">
+        <v>329</v>
+      </c>
+      <c r="E375" s="61">
+        <v>20</v>
+      </c>
+      <c r="F375" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G375" s="61">
+        <v>40</v>
+      </c>
       <c r="H375" s="61"/>
       <c r="I375" s="61"/>
       <c r="J375" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K375" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L375" s="61"/>
       <c r="M375" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N375" s="61"/>
     </row>
@@ -16237,23 +16468,37 @@
         <f t="shared" si="5"/>
         <v>374</v>
       </c>
-      <c r="B377" s="76"/>
-      <c r="C377" s="77"/>
-      <c r="D377" s="76"/>
-      <c r="E377" s="61"/>
-      <c r="F377" s="78"/>
-      <c r="G377" s="61"/>
+      <c r="B377" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C377" s="77">
+        <v>45304</v>
+      </c>
+      <c r="D377" s="76">
+        <v>330</v>
+      </c>
+      <c r="E377" s="61">
+        <v>4</v>
+      </c>
+      <c r="F377" s="78">
+        <v>5</v>
+      </c>
+      <c r="G377" s="61">
+        <v>40</v>
+      </c>
       <c r="H377" s="61"/>
       <c r="I377" s="61"/>
       <c r="J377" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K377" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L377" s="61"/>
+        <v>800</v>
+      </c>
+      <c r="L377" s="61">
+        <v>800</v>
+      </c>
       <c r="M377" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16293,23 +16538,38 @@
         <f t="shared" si="5"/>
         <v>376</v>
       </c>
-      <c r="B379" s="76"/>
-      <c r="C379" s="77"/>
-      <c r="D379" s="76"/>
-      <c r="E379" s="61"/>
-      <c r="F379" s="78"/>
-      <c r="G379" s="61"/>
+      <c r="B379" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C379" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D379" s="76">
+        <v>331</v>
+      </c>
+      <c r="E379" s="61">
+        <v>20</v>
+      </c>
+      <c r="F379" s="78">
+        <v>5</v>
+      </c>
+      <c r="G379" s="61">
+        <v>40</v>
+      </c>
       <c r="H379" s="61"/>
       <c r="I379" s="61"/>
       <c r="J379" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K379" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L379" s="61"/>
+        <v>4000</v>
+      </c>
+      <c r="L379" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>4000</v>
+      </c>
       <c r="M379" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16321,23 +16581,38 @@
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
-      <c r="B380" s="76"/>
-      <c r="C380" s="77"/>
-      <c r="D380" s="76"/>
-      <c r="E380" s="61"/>
-      <c r="F380" s="78"/>
-      <c r="G380" s="61"/>
+      <c r="B380" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C380" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D380" s="76">
+        <v>331</v>
+      </c>
+      <c r="E380" s="61">
+        <v>10</v>
+      </c>
+      <c r="F380" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G380" s="61">
+        <v>37</v>
+      </c>
       <c r="H380" s="61"/>
       <c r="I380" s="61"/>
       <c r="J380" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K380" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L380" s="61"/>
+        <v>740</v>
+      </c>
+      <c r="L380" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>740</v>
+      </c>
       <c r="M380" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16349,23 +16624,38 @@
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
-      <c r="B381" s="76"/>
-      <c r="C381" s="77"/>
-      <c r="D381" s="76"/>
-      <c r="E381" s="61"/>
-      <c r="F381" s="78"/>
-      <c r="G381" s="61"/>
+      <c r="B381" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C381" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D381" s="76">
+        <v>331</v>
+      </c>
+      <c r="E381" s="61">
+        <v>1</v>
+      </c>
+      <c r="F381" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G381" s="61">
+        <v>37</v>
+      </c>
       <c r="H381" s="61"/>
       <c r="I381" s="61"/>
       <c r="J381" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K381" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L381" s="61"/>
+        <v>37</v>
+      </c>
+      <c r="L381" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>37</v>
+      </c>
       <c r="M381" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16377,23 +16667,38 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="B382" s="76"/>
-      <c r="C382" s="77"/>
-      <c r="D382" s="76"/>
-      <c r="E382" s="61"/>
-      <c r="F382" s="78"/>
-      <c r="G382" s="61"/>
+      <c r="B382" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C382" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D382" s="76">
+        <v>331</v>
+      </c>
+      <c r="E382" s="61">
+        <v>30</v>
+      </c>
+      <c r="F382" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G382" s="61">
+        <v>37</v>
+      </c>
       <c r="H382" s="61"/>
       <c r="I382" s="61"/>
       <c r="J382" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K382" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L382" s="61"/>
+        <v>2220</v>
+      </c>
+      <c r="L382" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>2220</v>
+      </c>
       <c r="M382" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16405,23 +16710,38 @@
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
-      <c r="B383" s="76"/>
-      <c r="C383" s="77"/>
-      <c r="D383" s="76"/>
-      <c r="E383" s="61"/>
-      <c r="F383" s="78"/>
-      <c r="G383" s="61"/>
+      <c r="B383" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C383" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D383" s="76">
+        <v>331</v>
+      </c>
+      <c r="E383" s="61">
+        <v>1</v>
+      </c>
+      <c r="F383" s="78">
+        <v>5</v>
+      </c>
+      <c r="G383" s="61">
+        <v>40</v>
+      </c>
       <c r="H383" s="61"/>
       <c r="I383" s="61"/>
       <c r="J383" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K383" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L383" s="61"/>
+        <v>200</v>
+      </c>
+      <c r="L383" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>200</v>
+      </c>
       <c r="M383" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16433,23 +16753,38 @@
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
-      <c r="B384" s="76"/>
-      <c r="C384" s="77"/>
-      <c r="D384" s="76"/>
-      <c r="E384" s="61"/>
-      <c r="F384" s="78"/>
-      <c r="G384" s="61"/>
+      <c r="B384" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C384" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D384" s="76">
+        <v>331</v>
+      </c>
+      <c r="E384" s="61">
+        <v>1</v>
+      </c>
+      <c r="F384" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G384" s="61">
+        <v>40</v>
+      </c>
       <c r="H384" s="61"/>
       <c r="I384" s="61"/>
       <c r="J384" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K384" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L384" s="61"/>
+        <v>80</v>
+      </c>
+      <c r="L384" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>80</v>
+      </c>
       <c r="M384" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16461,23 +16796,38 @@
         <f t="shared" si="5"/>
         <v>382</v>
       </c>
-      <c r="B385" s="76"/>
-      <c r="C385" s="77"/>
-      <c r="D385" s="76"/>
-      <c r="E385" s="61"/>
-      <c r="F385" s="78"/>
-      <c r="G385" s="61"/>
+      <c r="B385" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C385" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D385" s="76">
+        <v>331</v>
+      </c>
+      <c r="E385" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="F385" s="78">
+        <v>1</v>
+      </c>
+      <c r="G385" s="61">
+        <v>40</v>
+      </c>
       <c r="H385" s="61"/>
       <c r="I385" s="61"/>
       <c r="J385" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K385" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L385" s="61"/>
+        <v>20</v>
+      </c>
+      <c r="L385" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>20</v>
+      </c>
       <c r="M385" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16517,23 +16867,37 @@
         <f t="shared" ref="A387:A450" si="6">A386+1</f>
         <v>384</v>
       </c>
-      <c r="B387" s="76"/>
-      <c r="C387" s="77"/>
-      <c r="D387" s="76"/>
-      <c r="E387" s="61"/>
-      <c r="F387" s="78"/>
-      <c r="G387" s="61"/>
+      <c r="B387" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C387" s="77">
+        <v>45309</v>
+      </c>
+      <c r="D387" s="76">
+        <v>332</v>
+      </c>
+      <c r="E387" s="61">
+        <v>2</v>
+      </c>
+      <c r="F387" s="78">
+        <v>5</v>
+      </c>
+      <c r="G387" s="61">
+        <v>40</v>
+      </c>
       <c r="H387" s="61"/>
       <c r="I387" s="61"/>
       <c r="J387" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K387" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L387" s="61"/>
+        <v>400</v>
+      </c>
+      <c r="L387" s="61">
+        <v>400</v>
+      </c>
       <c r="M387" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16573,26 +16937,38 @@
         <f t="shared" si="6"/>
         <v>386</v>
       </c>
-      <c r="B389" s="76"/>
-      <c r="C389" s="77"/>
-      <c r="D389" s="76"/>
-      <c r="E389" s="61"/>
-      <c r="F389" s="78"/>
-      <c r="G389" s="61"/>
+      <c r="B389" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C389" s="77">
+        <v>45313</v>
+      </c>
+      <c r="D389" s="76">
+        <v>333</v>
+      </c>
+      <c r="E389" s="61">
+        <v>5</v>
+      </c>
+      <c r="F389" s="78">
+        <v>5</v>
+      </c>
+      <c r="G389" s="61">
+        <v>40</v>
+      </c>
       <c r="H389" s="61"/>
       <c r="I389" s="61"/>
       <c r="J389" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K389" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L389" s="61"/>
       <c r="M389" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N389" s="61"/>
     </row>
@@ -16629,23 +17005,38 @@
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
-      <c r="B391" s="76"/>
-      <c r="C391" s="77"/>
-      <c r="D391" s="76"/>
-      <c r="E391" s="61"/>
-      <c r="F391" s="78"/>
-      <c r="G391" s="61"/>
+      <c r="B391" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C391" s="77">
+        <v>45314</v>
+      </c>
+      <c r="D391" s="76">
+        <v>334</v>
+      </c>
+      <c r="E391" s="61">
+        <v>3</v>
+      </c>
+      <c r="F391" s="78">
+        <v>5</v>
+      </c>
+      <c r="G391" s="61">
+        <v>40</v>
+      </c>
       <c r="H391" s="61"/>
       <c r="I391" s="61"/>
       <c r="J391" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K391" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L391" s="61"/>
+        <v>600</v>
+      </c>
+      <c r="L391" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>600</v>
+      </c>
       <c r="M391" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16657,23 +17048,38 @@
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
-      <c r="B392" s="76"/>
-      <c r="C392" s="77"/>
-      <c r="D392" s="76"/>
-      <c r="E392" s="61"/>
-      <c r="F392" s="78"/>
-      <c r="G392" s="61"/>
+      <c r="B392" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C392" s="77">
+        <v>45314</v>
+      </c>
+      <c r="D392" s="76">
+        <v>334</v>
+      </c>
+      <c r="E392" s="61">
+        <v>2</v>
+      </c>
+      <c r="F392" s="78">
+        <v>5</v>
+      </c>
+      <c r="G392" s="61">
+        <v>45</v>
+      </c>
       <c r="H392" s="61"/>
       <c r="I392" s="61"/>
       <c r="J392" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K392" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L392" s="61"/>
+        <v>450</v>
+      </c>
+      <c r="L392" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>450</v>
+      </c>
       <c r="M392" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16685,23 +17091,38 @@
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="B393" s="76"/>
-      <c r="C393" s="77"/>
-      <c r="D393" s="76"/>
-      <c r="E393" s="61"/>
-      <c r="F393" s="78"/>
-      <c r="G393" s="61"/>
+      <c r="B393" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C393" s="77">
+        <v>45314</v>
+      </c>
+      <c r="D393" s="76">
+        <v>334</v>
+      </c>
+      <c r="E393" s="61">
+        <v>3</v>
+      </c>
+      <c r="F393" s="78">
+        <v>5</v>
+      </c>
+      <c r="G393" s="61">
+        <v>40</v>
+      </c>
       <c r="H393" s="61"/>
       <c r="I393" s="61"/>
       <c r="J393" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K393" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L393" s="61"/>
+        <v>600</v>
+      </c>
+      <c r="L393" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>600</v>
+      </c>
       <c r="M393" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16713,23 +17134,38 @@
         <f t="shared" si="6"/>
         <v>391</v>
       </c>
-      <c r="B394" s="76"/>
-      <c r="C394" s="77"/>
-      <c r="D394" s="76"/>
-      <c r="E394" s="61"/>
-      <c r="F394" s="78"/>
-      <c r="G394" s="61"/>
+      <c r="B394" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C394" s="77">
+        <v>45314</v>
+      </c>
+      <c r="D394" s="76">
+        <v>334</v>
+      </c>
+      <c r="E394" s="61">
+        <v>2</v>
+      </c>
+      <c r="F394" s="78">
+        <v>5</v>
+      </c>
+      <c r="G394" s="61">
+        <v>40</v>
+      </c>
       <c r="H394" s="61"/>
       <c r="I394" s="61"/>
       <c r="J394" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K394" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L394" s="61"/>
+        <v>400</v>
+      </c>
+      <c r="L394" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>400</v>
+      </c>
       <c r="M394" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16741,23 +17177,38 @@
         <f t="shared" si="6"/>
         <v>392</v>
       </c>
-      <c r="B395" s="76"/>
-      <c r="C395" s="77"/>
-      <c r="D395" s="76"/>
-      <c r="E395" s="61"/>
-      <c r="F395" s="78"/>
-      <c r="G395" s="61"/>
+      <c r="B395" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C395" s="77">
+        <v>45314</v>
+      </c>
+      <c r="D395" s="76">
+        <v>334</v>
+      </c>
+      <c r="E395" s="61">
+        <v>3</v>
+      </c>
+      <c r="F395" s="78">
+        <v>5</v>
+      </c>
+      <c r="G395" s="61">
+        <v>45</v>
+      </c>
       <c r="H395" s="61"/>
       <c r="I395" s="61"/>
       <c r="J395" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K395" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L395" s="61"/>
+        <v>675</v>
+      </c>
+      <c r="L395" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>675</v>
+      </c>
       <c r="M395" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16785,7 +17236,10 @@
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
         <v>0</v>
       </c>
-      <c r="L396" s="61"/>
+      <c r="L396" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>0</v>
+      </c>
       <c r="M396" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16797,23 +17251,37 @@
         <f t="shared" si="6"/>
         <v>394</v>
       </c>
-      <c r="B397" s="76"/>
-      <c r="C397" s="77"/>
-      <c r="D397" s="76"/>
-      <c r="E397" s="61"/>
-      <c r="F397" s="78"/>
-      <c r="G397" s="61"/>
+      <c r="B397" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C397" s="77">
+        <v>45314</v>
+      </c>
+      <c r="D397" s="76">
+        <v>335</v>
+      </c>
+      <c r="E397" s="61">
+        <v>59</v>
+      </c>
+      <c r="F397" s="78">
+        <v>5</v>
+      </c>
+      <c r="G397" s="61">
+        <v>40</v>
+      </c>
       <c r="H397" s="61"/>
       <c r="I397" s="61"/>
       <c r="J397" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="K397" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L397" s="61"/>
+        <v>11800</v>
+      </c>
+      <c r="L397" s="61">
+        <v>11800</v>
+      </c>
       <c r="M397" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -16853,10 +17321,18 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="B399" s="76"/>
-      <c r="C399" s="77"/>
-      <c r="D399" s="76"/>
-      <c r="E399" s="61"/>
+      <c r="B399" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C399" s="77">
+        <v>45319</v>
+      </c>
+      <c r="D399" s="76">
+        <v>336</v>
+      </c>
+      <c r="E399" s="61">
+        <v>35</v>
+      </c>
       <c r="F399" s="78"/>
       <c r="G399" s="61"/>
       <c r="H399" s="61"/>
@@ -16881,10 +17357,18 @@
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="B400" s="76"/>
-      <c r="C400" s="77"/>
-      <c r="D400" s="76"/>
-      <c r="E400" s="61"/>
+      <c r="B400" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C400" s="77">
+        <v>45322</v>
+      </c>
+      <c r="D400" s="76">
+        <v>336</v>
+      </c>
+      <c r="E400" s="61">
+        <v>63</v>
+      </c>
       <c r="F400" s="78"/>
       <c r="G400" s="61"/>
       <c r="H400" s="61"/>
@@ -16909,10 +17393,18 @@
         <f t="shared" si="6"/>
         <v>398</v>
       </c>
-      <c r="B401" s="76"/>
-      <c r="C401" s="77"/>
-      <c r="D401" s="76"/>
-      <c r="E401" s="61"/>
+      <c r="B401" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C401" s="77">
+        <v>45308</v>
+      </c>
+      <c r="D401" s="76">
+        <v>336</v>
+      </c>
+      <c r="E401" s="61">
+        <v>8</v>
+      </c>
       <c r="F401" s="78"/>
       <c r="G401" s="61"/>
       <c r="H401" s="61"/>
@@ -16937,10 +17429,18 @@
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="B402" s="76"/>
-      <c r="C402" s="77"/>
-      <c r="D402" s="76"/>
-      <c r="E402" s="61"/>
+      <c r="B402" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C402" s="77">
+        <v>45342</v>
+      </c>
+      <c r="D402" s="76">
+        <v>336</v>
+      </c>
+      <c r="E402" s="61">
+        <v>19</v>
+      </c>
       <c r="F402" s="78"/>
       <c r="G402" s="61"/>
       <c r="H402" s="61"/>
@@ -16965,10 +17465,18 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="B403" s="76"/>
-      <c r="C403" s="77"/>
-      <c r="D403" s="76"/>
-      <c r="E403" s="61"/>
+      <c r="B403" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C403" s="77">
+        <v>45345</v>
+      </c>
+      <c r="D403" s="76">
+        <v>336</v>
+      </c>
+      <c r="E403" s="61">
+        <v>4</v>
+      </c>
       <c r="F403" s="78"/>
       <c r="G403" s="61"/>
       <c r="H403" s="61"/>
@@ -17021,10 +17529,18 @@
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
-      <c r="B405" s="76"/>
-      <c r="C405" s="77"/>
-      <c r="D405" s="76"/>
-      <c r="E405" s="61"/>
+      <c r="B405" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C405" s="77">
+        <v>45319</v>
+      </c>
+      <c r="D405" s="76">
+        <v>337</v>
+      </c>
+      <c r="E405" s="61">
+        <v>30</v>
+      </c>
       <c r="F405" s="78"/>
       <c r="G405" s="61"/>
       <c r="H405" s="61"/>
@@ -17049,10 +17565,18 @@
         <f t="shared" si="6"/>
         <v>403</v>
       </c>
-      <c r="B406" s="76"/>
-      <c r="C406" s="77"/>
-      <c r="D406" s="76"/>
-      <c r="E406" s="61"/>
+      <c r="B406" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C406" s="77">
+        <v>45321</v>
+      </c>
+      <c r="D406" s="76">
+        <v>337</v>
+      </c>
+      <c r="E406" s="61">
+        <v>5</v>
+      </c>
       <c r="F406" s="78"/>
       <c r="G406" s="61"/>
       <c r="H406" s="61"/>
@@ -17077,10 +17601,18 @@
         <f t="shared" si="6"/>
         <v>404</v>
       </c>
-      <c r="B407" s="76"/>
-      <c r="C407" s="77"/>
-      <c r="D407" s="76"/>
-      <c r="E407" s="61"/>
+      <c r="B407" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C407" s="77">
+        <v>45330</v>
+      </c>
+      <c r="D407" s="76">
+        <v>337</v>
+      </c>
+      <c r="E407" s="61">
+        <v>13</v>
+      </c>
       <c r="F407" s="78"/>
       <c r="G407" s="61"/>
       <c r="H407" s="61"/>
@@ -17105,10 +17637,18 @@
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
-      <c r="B408" s="76"/>
-      <c r="C408" s="77"/>
-      <c r="D408" s="76"/>
-      <c r="E408" s="61"/>
+      <c r="B408" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C408" s="77">
+        <v>45330</v>
+      </c>
+      <c r="D408" s="76">
+        <v>337</v>
+      </c>
+      <c r="E408" s="61">
+        <v>30</v>
+      </c>
       <c r="F408" s="78"/>
       <c r="G408" s="61"/>
       <c r="H408" s="61"/>
@@ -17133,10 +17673,18 @@
         <f t="shared" si="6"/>
         <v>406</v>
       </c>
-      <c r="B409" s="76"/>
-      <c r="C409" s="77"/>
-      <c r="D409" s="76"/>
-      <c r="E409" s="61"/>
+      <c r="B409" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C409" s="77">
+        <v>45339</v>
+      </c>
+      <c r="D409" s="76">
+        <v>337</v>
+      </c>
+      <c r="E409" s="61">
+        <v>7</v>
+      </c>
       <c r="F409" s="78"/>
       <c r="G409" s="61"/>
       <c r="H409" s="61"/>
@@ -17161,10 +17709,18 @@
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
-      <c r="B410" s="76"/>
-      <c r="C410" s="77"/>
-      <c r="D410" s="76"/>
-      <c r="E410" s="61"/>
+      <c r="B410" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C410" s="77">
+        <v>45339</v>
+      </c>
+      <c r="D410" s="76">
+        <v>337</v>
+      </c>
+      <c r="E410" s="61">
+        <v>5</v>
+      </c>
       <c r="F410" s="78"/>
       <c r="G410" s="61"/>
       <c r="H410" s="61"/>
@@ -17217,10 +17773,18 @@
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
-      <c r="B412" s="76"/>
-      <c r="C412" s="77"/>
-      <c r="D412" s="76"/>
-      <c r="E412" s="61"/>
+      <c r="B412" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C412" s="77">
+        <v>45319</v>
+      </c>
+      <c r="D412" s="76">
+        <v>338</v>
+      </c>
+      <c r="E412" s="61">
+        <v>33</v>
+      </c>
       <c r="F412" s="78"/>
       <c r="G412" s="61"/>
       <c r="H412" s="61"/>
@@ -17245,10 +17809,18 @@
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
-      <c r="B413" s="76"/>
-      <c r="C413" s="77"/>
-      <c r="D413" s="76"/>
-      <c r="E413" s="61"/>
+      <c r="B413" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C413" s="77">
+        <v>45337</v>
+      </c>
+      <c r="D413" s="76">
+        <v>338</v>
+      </c>
+      <c r="E413" s="61">
+        <v>40</v>
+      </c>
       <c r="F413" s="78"/>
       <c r="G413" s="61"/>
       <c r="H413" s="61"/>
@@ -17273,10 +17845,18 @@
         <f t="shared" si="6"/>
         <v>411</v>
       </c>
-      <c r="B414" s="76"/>
-      <c r="C414" s="77"/>
-      <c r="D414" s="76"/>
-      <c r="E414" s="61"/>
+      <c r="B414" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C414" s="77">
+        <v>45339</v>
+      </c>
+      <c r="D414" s="76">
+        <v>338</v>
+      </c>
+      <c r="E414" s="61">
+        <v>9</v>
+      </c>
       <c r="F414" s="78"/>
       <c r="G414" s="61"/>
       <c r="H414" s="61"/>
@@ -17301,10 +17881,18 @@
         <f t="shared" si="6"/>
         <v>412</v>
       </c>
-      <c r="B415" s="76"/>
-      <c r="C415" s="77"/>
-      <c r="D415" s="76"/>
-      <c r="E415" s="61"/>
+      <c r="B415" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C415" s="77">
+        <v>45342</v>
+      </c>
+      <c r="D415" s="76">
+        <v>338</v>
+      </c>
+      <c r="E415" s="61">
+        <v>17</v>
+      </c>
       <c r="F415" s="78"/>
       <c r="G415" s="61"/>
       <c r="H415" s="61"/>
@@ -17329,10 +17917,18 @@
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
-      <c r="B416" s="76"/>
-      <c r="C416" s="77"/>
-      <c r="D416" s="76"/>
-      <c r="E416" s="61"/>
+      <c r="B416" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C416" s="77">
+        <v>45342</v>
+      </c>
+      <c r="D416" s="76">
+        <v>338</v>
+      </c>
+      <c r="E416" s="61">
+        <v>30</v>
+      </c>
       <c r="F416" s="78"/>
       <c r="G416" s="61"/>
       <c r="H416" s="61"/>
@@ -17385,26 +17981,38 @@
         <f t="shared" si="6"/>
         <v>415</v>
       </c>
-      <c r="B418" s="76"/>
-      <c r="C418" s="77"/>
-      <c r="D418" s="76"/>
-      <c r="E418" s="61"/>
-      <c r="F418" s="78"/>
-      <c r="G418" s="61"/>
+      <c r="B418" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C418" s="77">
+        <v>45342</v>
+      </c>
+      <c r="D418" s="76">
+        <v>339</v>
+      </c>
+      <c r="E418" s="61">
+        <v>15</v>
+      </c>
+      <c r="F418" s="78">
+        <v>1</v>
+      </c>
+      <c r="G418" s="61">
+        <v>40</v>
+      </c>
       <c r="H418" s="61"/>
       <c r="I418" s="61"/>
       <c r="J418" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K418" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L418" s="61"/>
       <c r="M418" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N418" s="61"/>
     </row>
@@ -17441,10 +18049,18 @@
         <f t="shared" si="6"/>
         <v>417</v>
       </c>
-      <c r="B420" s="76"/>
-      <c r="C420" s="77"/>
-      <c r="D420" s="76"/>
-      <c r="E420" s="61"/>
+      <c r="B420" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C420" s="77">
+        <v>45342</v>
+      </c>
+      <c r="D420" s="76">
+        <v>340</v>
+      </c>
+      <c r="E420" s="61">
+        <v>5</v>
+      </c>
       <c r="F420" s="78"/>
       <c r="G420" s="61"/>
       <c r="H420" s="61"/>
@@ -17469,10 +18085,18 @@
         <f t="shared" si="6"/>
         <v>418</v>
       </c>
-      <c r="B421" s="76"/>
-      <c r="C421" s="77"/>
-      <c r="D421" s="76"/>
-      <c r="E421" s="61"/>
+      <c r="B421" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C421" s="77">
+        <v>45342</v>
+      </c>
+      <c r="D421" s="76">
+        <v>340</v>
+      </c>
+      <c r="E421" s="61">
+        <v>2</v>
+      </c>
       <c r="F421" s="78"/>
       <c r="G421" s="61"/>
       <c r="H421" s="61"/>
@@ -17525,23 +18149,38 @@
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="B423" s="76"/>
-      <c r="C423" s="77"/>
-      <c r="D423" s="76"/>
-      <c r="E423" s="61"/>
-      <c r="F423" s="78"/>
-      <c r="G423" s="61"/>
+      <c r="B423" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C423" s="77">
+        <v>45347</v>
+      </c>
+      <c r="D423" s="76">
+        <v>341</v>
+      </c>
+      <c r="E423" s="61">
+        <v>1</v>
+      </c>
+      <c r="F423" s="78">
+        <v>5</v>
+      </c>
+      <c r="G423" s="61">
+        <v>40</v>
+      </c>
       <c r="H423" s="61"/>
       <c r="I423" s="61"/>
       <c r="J423" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K423" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L423" s="61"/>
+        <v>200</v>
+      </c>
+      <c r="L423" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>200</v>
+      </c>
       <c r="M423" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -17553,23 +18192,38 @@
         <f t="shared" si="6"/>
         <v>421</v>
       </c>
-      <c r="B424" s="76"/>
-      <c r="C424" s="77"/>
-      <c r="D424" s="76"/>
-      <c r="E424" s="61"/>
-      <c r="F424" s="78"/>
-      <c r="G424" s="61"/>
+      <c r="B424" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C424" s="77">
+        <v>45347</v>
+      </c>
+      <c r="D424" s="76">
+        <v>341</v>
+      </c>
+      <c r="E424" s="61">
+        <v>3</v>
+      </c>
+      <c r="F424" s="78">
+        <v>5</v>
+      </c>
+      <c r="G424" s="61">
+        <v>45</v>
+      </c>
       <c r="H424" s="61"/>
       <c r="I424" s="61"/>
       <c r="J424" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K424" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L424" s="61"/>
+        <v>675</v>
+      </c>
+      <c r="L424" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>675</v>
+      </c>
       <c r="M424" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -17609,26 +18263,38 @@
         <f t="shared" si="6"/>
         <v>423</v>
       </c>
-      <c r="B426" s="76"/>
-      <c r="C426" s="77"/>
-      <c r="D426" s="76"/>
-      <c r="E426" s="61"/>
-      <c r="F426" s="78"/>
-      <c r="G426" s="61"/>
+      <c r="B426" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C426" s="77">
+        <v>45306</v>
+      </c>
+      <c r="D426" s="76">
+        <v>342</v>
+      </c>
+      <c r="E426" s="61">
+        <v>17</v>
+      </c>
+      <c r="F426" s="78">
+        <v>5</v>
+      </c>
+      <c r="G426" s="79">
+        <v>42</v>
+      </c>
       <c r="H426" s="61"/>
       <c r="I426" s="61"/>
       <c r="J426" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K426" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>3570</v>
       </c>
       <c r="L426" s="61"/>
       <c r="M426" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>3570</v>
       </c>
       <c r="N426" s="61"/>
     </row>
@@ -17637,26 +18303,38 @@
         <f t="shared" si="6"/>
         <v>424</v>
       </c>
-      <c r="B427" s="76"/>
-      <c r="C427" s="77"/>
-      <c r="D427" s="76"/>
-      <c r="E427" s="61"/>
-      <c r="F427" s="78"/>
-      <c r="G427" s="61"/>
+      <c r="B427" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C427" s="77">
+        <v>45306</v>
+      </c>
+      <c r="D427" s="76">
+        <v>342</v>
+      </c>
+      <c r="E427" s="61">
+        <v>40</v>
+      </c>
+      <c r="F427" s="78">
+        <v>1</v>
+      </c>
+      <c r="G427" s="61">
+        <v>42</v>
+      </c>
       <c r="H427" s="61"/>
       <c r="I427" s="61"/>
       <c r="J427" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K427" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="L427" s="61"/>
       <c r="M427" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="N427" s="61"/>
     </row>
@@ -17693,26 +18371,38 @@
         <f t="shared" si="6"/>
         <v>426</v>
       </c>
-      <c r="B429" s="76"/>
-      <c r="C429" s="77"/>
-      <c r="D429" s="76"/>
-      <c r="E429" s="61"/>
-      <c r="F429" s="78"/>
-      <c r="G429" s="61"/>
+      <c r="B429" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C429" s="77">
+        <v>45306</v>
+      </c>
+      <c r="D429" s="76">
+        <v>343</v>
+      </c>
+      <c r="E429" s="61">
+        <v>20</v>
+      </c>
+      <c r="F429" s="78">
+        <v>5</v>
+      </c>
+      <c r="G429" s="61">
+        <v>40</v>
+      </c>
       <c r="H429" s="61"/>
       <c r="I429" s="61"/>
       <c r="J429" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K429" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L429" s="61"/>
       <c r="M429" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="N429" s="61"/>
     </row>
@@ -17721,26 +18411,38 @@
         <f t="shared" si="6"/>
         <v>427</v>
       </c>
-      <c r="B430" s="76"/>
-      <c r="C430" s="77"/>
-      <c r="D430" s="76"/>
-      <c r="E430" s="61"/>
-      <c r="F430" s="78"/>
-      <c r="G430" s="61"/>
+      <c r="B430" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C430" s="77">
+        <v>45306</v>
+      </c>
+      <c r="D430" s="76">
+        <v>343</v>
+      </c>
+      <c r="E430" s="61">
+        <v>20</v>
+      </c>
+      <c r="F430" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G430" s="61">
+        <v>38</v>
+      </c>
       <c r="H430" s="61"/>
       <c r="I430" s="61"/>
       <c r="J430" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K430" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="L430" s="61"/>
       <c r="M430" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="N430" s="61"/>
     </row>
@@ -17749,26 +18451,38 @@
         <f t="shared" si="6"/>
         <v>428</v>
       </c>
-      <c r="B431" s="76"/>
-      <c r="C431" s="77"/>
-      <c r="D431" s="76"/>
-      <c r="E431" s="61"/>
-      <c r="F431" s="78"/>
-      <c r="G431" s="61"/>
+      <c r="B431" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C431" s="77">
+        <v>45306</v>
+      </c>
+      <c r="D431" s="76">
+        <v>343</v>
+      </c>
+      <c r="E431" s="61">
+        <v>20</v>
+      </c>
+      <c r="F431" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G431" s="61">
+        <v>38</v>
+      </c>
       <c r="H431" s="61"/>
       <c r="I431" s="61"/>
       <c r="J431" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K431" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="L431" s="61"/>
       <c r="M431" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="N431" s="61"/>
     </row>
@@ -17805,26 +18519,40 @@
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
-      <c r="B433" s="76"/>
-      <c r="C433" s="77"/>
-      <c r="D433" s="76"/>
-      <c r="E433" s="61"/>
-      <c r="F433" s="78"/>
-      <c r="G433" s="61"/>
+      <c r="B433" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C433" s="77">
+        <v>45344</v>
+      </c>
+      <c r="D433" s="76">
+        <v>344</v>
+      </c>
+      <c r="E433" s="61">
+        <v>100</v>
+      </c>
+      <c r="F433" s="78">
+        <v>5</v>
+      </c>
+      <c r="G433" s="61">
+        <v>40</v>
+      </c>
       <c r="H433" s="61"/>
       <c r="I433" s="61"/>
       <c r="J433" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K433" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L433" s="61"/>
+        <v>20000</v>
+      </c>
+      <c r="L433" s="61">
+        <v>9000</v>
+      </c>
       <c r="M433" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="N433" s="61"/>
     </row>
@@ -17861,23 +18589,37 @@
         <f t="shared" si="6"/>
         <v>432</v>
       </c>
-      <c r="B435" s="76"/>
-      <c r="C435" s="77"/>
-      <c r="D435" s="76"/>
-      <c r="E435" s="61"/>
-      <c r="F435" s="78"/>
-      <c r="G435" s="61"/>
+      <c r="B435" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C435" s="77">
+        <v>45347</v>
+      </c>
+      <c r="D435" s="76">
+        <v>345</v>
+      </c>
+      <c r="E435" s="61">
+        <v>25</v>
+      </c>
+      <c r="F435" s="78">
+        <v>5</v>
+      </c>
+      <c r="G435" s="61">
+        <v>40</v>
+      </c>
       <c r="H435" s="61"/>
       <c r="I435" s="61"/>
       <c r="J435" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K435" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L435" s="61"/>
+        <v>5000</v>
+      </c>
+      <c r="L435" s="61">
+        <v>5000</v>
+      </c>
       <c r="M435" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -17889,23 +18631,37 @@
         <f t="shared" si="6"/>
         <v>433</v>
       </c>
-      <c r="B436" s="76"/>
-      <c r="C436" s="77"/>
-      <c r="D436" s="76"/>
-      <c r="E436" s="61"/>
-      <c r="F436" s="78"/>
-      <c r="G436" s="61"/>
+      <c r="B436" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C436" s="77">
+        <v>45347</v>
+      </c>
+      <c r="D436" s="76">
+        <v>345</v>
+      </c>
+      <c r="E436" s="61">
+        <v>20</v>
+      </c>
+      <c r="F436" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G436" s="61">
+        <v>38</v>
+      </c>
       <c r="H436" s="61"/>
       <c r="I436" s="61"/>
       <c r="J436" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K436" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L436" s="61"/>
+        <v>760</v>
+      </c>
+      <c r="L436" s="61">
+        <v>760</v>
+      </c>
       <c r="M436" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -17945,26 +18701,40 @@
         <f t="shared" si="6"/>
         <v>435</v>
       </c>
-      <c r="B438" s="76"/>
-      <c r="C438" s="77"/>
-      <c r="D438" s="76"/>
-      <c r="E438" s="61"/>
-      <c r="F438" s="78"/>
-      <c r="G438" s="61"/>
+      <c r="B438" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C438" s="77">
+        <v>45349</v>
+      </c>
+      <c r="D438" s="76">
+        <v>346</v>
+      </c>
+      <c r="E438" s="61">
+        <v>120</v>
+      </c>
+      <c r="F438" s="78">
+        <v>5</v>
+      </c>
+      <c r="G438" s="61">
+        <v>40</v>
+      </c>
       <c r="H438" s="61"/>
       <c r="I438" s="61"/>
       <c r="J438" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K438" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L438" s="61"/>
+        <v>24000</v>
+      </c>
+      <c r="L438" s="61">
+        <v>23000</v>
+      </c>
       <c r="M438" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N438" s="61"/>
     </row>
@@ -17973,26 +18743,38 @@
         <f t="shared" si="6"/>
         <v>436</v>
       </c>
-      <c r="B439" s="76"/>
-      <c r="C439" s="77"/>
-      <c r="D439" s="76"/>
-      <c r="E439" s="61"/>
-      <c r="F439" s="78"/>
-      <c r="G439" s="61"/>
+      <c r="B439" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C439" s="77">
+        <v>45349</v>
+      </c>
+      <c r="D439" s="76">
+        <v>346</v>
+      </c>
+      <c r="E439" s="61">
+        <v>150</v>
+      </c>
+      <c r="F439" s="78">
+        <v>5</v>
+      </c>
+      <c r="G439" s="61">
+        <v>40</v>
+      </c>
       <c r="H439" s="61"/>
       <c r="I439" s="61"/>
       <c r="J439" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K439" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L439" s="61"/>
       <c r="M439" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="N439" s="61"/>
     </row>
@@ -18001,26 +18783,38 @@
         <f t="shared" si="6"/>
         <v>437</v>
       </c>
-      <c r="B440" s="76"/>
-      <c r="C440" s="77"/>
-      <c r="D440" s="76"/>
-      <c r="E440" s="61"/>
-      <c r="F440" s="78"/>
-      <c r="G440" s="61"/>
+      <c r="B440" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C440" s="77">
+        <v>45349</v>
+      </c>
+      <c r="D440" s="76">
+        <v>346</v>
+      </c>
+      <c r="E440" s="61">
+        <v>20</v>
+      </c>
+      <c r="F440" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G440" s="61">
+        <v>38</v>
+      </c>
       <c r="H440" s="61"/>
       <c r="I440" s="61"/>
       <c r="J440" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K440" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="L440" s="61"/>
       <c r="M440" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="N440" s="61"/>
     </row>
@@ -18057,26 +18851,40 @@
         <f t="shared" si="6"/>
         <v>439</v>
       </c>
-      <c r="B442" s="76"/>
-      <c r="C442" s="77"/>
-      <c r="D442" s="76"/>
-      <c r="E442" s="61"/>
-      <c r="F442" s="78"/>
-      <c r="G442" s="61"/>
+      <c r="B442" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C442" s="77">
+        <v>45350</v>
+      </c>
+      <c r="D442" s="76">
+        <v>347</v>
+      </c>
+      <c r="E442" s="61">
+        <v>364</v>
+      </c>
+      <c r="F442" s="78">
+        <v>5</v>
+      </c>
+      <c r="G442" s="61">
+        <v>39</v>
+      </c>
       <c r="H442" s="61"/>
       <c r="I442" s="61"/>
       <c r="J442" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="K442" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L442" s="61"/>
+        <v>70980</v>
+      </c>
+      <c r="L442" s="61">
+        <v>24000</v>
+      </c>
       <c r="M442" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>46980</v>
       </c>
       <c r="N442" s="61"/>
     </row>
@@ -18113,23 +18921,37 @@
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
-      <c r="B444" s="76"/>
-      <c r="C444" s="77"/>
-      <c r="D444" s="76"/>
-      <c r="E444" s="61"/>
-      <c r="F444" s="78"/>
-      <c r="G444" s="61"/>
+      <c r="B444" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="C444" s="77">
+        <v>45351</v>
+      </c>
+      <c r="D444" s="76">
+        <v>348</v>
+      </c>
+      <c r="E444" s="61">
+        <v>11</v>
+      </c>
+      <c r="F444" s="78">
+        <v>5</v>
+      </c>
+      <c r="G444" s="61">
+        <v>40</v>
+      </c>
       <c r="H444" s="61"/>
       <c r="I444" s="61"/>
       <c r="J444" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K444" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L444" s="61"/>
+        <v>2200</v>
+      </c>
+      <c r="L444" s="61">
+        <v>2200</v>
+      </c>
       <c r="M444" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -18169,23 +18991,38 @@
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
-      <c r="B446" s="76"/>
-      <c r="C446" s="77"/>
-      <c r="D446" s="76"/>
-      <c r="E446" s="61"/>
-      <c r="F446" s="78"/>
-      <c r="G446" s="61"/>
+      <c r="B446" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C446" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D446" s="76">
+        <v>349</v>
+      </c>
+      <c r="E446" s="61">
+        <v>6</v>
+      </c>
+      <c r="F446" s="78">
+        <v>5</v>
+      </c>
+      <c r="G446" s="61">
+        <v>38</v>
+      </c>
       <c r="H446" s="61"/>
       <c r="I446" s="61"/>
       <c r="J446" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K446" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L446" s="61"/>
+        <v>1140</v>
+      </c>
+      <c r="L446" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>1140</v>
+      </c>
       <c r="M446" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -18197,23 +19034,38 @@
         <f t="shared" si="6"/>
         <v>444</v>
       </c>
-      <c r="B447" s="76"/>
-      <c r="C447" s="77"/>
-      <c r="D447" s="76"/>
-      <c r="E447" s="61"/>
-      <c r="F447" s="78"/>
-      <c r="G447" s="61"/>
+      <c r="B447" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C447" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D447" s="76">
+        <v>349</v>
+      </c>
+      <c r="E447" s="61">
+        <v>4</v>
+      </c>
+      <c r="F447" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G447" s="61">
+        <v>38</v>
+      </c>
       <c r="H447" s="61"/>
       <c r="I447" s="61"/>
       <c r="J447" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="K447" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L447" s="61"/>
+        <v>304</v>
+      </c>
+      <c r="L447" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>304</v>
+      </c>
       <c r="M447" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -18253,23 +19105,37 @@
         <f t="shared" si="6"/>
         <v>446</v>
       </c>
-      <c r="B449" s="76"/>
-      <c r="C449" s="77"/>
-      <c r="D449" s="76"/>
-      <c r="E449" s="61"/>
-      <c r="F449" s="78"/>
-      <c r="G449" s="61"/>
+      <c r="B449" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C449" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D449" s="76">
+        <v>350</v>
+      </c>
+      <c r="E449" s="61">
+        <v>15</v>
+      </c>
+      <c r="F449" s="78">
+        <v>5</v>
+      </c>
+      <c r="G449" s="61">
+        <v>40</v>
+      </c>
       <c r="H449" s="61"/>
       <c r="I449" s="61"/>
       <c r="J449" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K449" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L449" s="61"/>
+        <v>3000</v>
+      </c>
+      <c r="L449" s="61">
+        <v>3000</v>
+      </c>
       <c r="M449" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
         <v>0</v>
@@ -18306,29 +19172,43 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" s="53">
-        <f t="shared" ref="A451:A474" si="7">A450+1</f>
+        <f t="shared" ref="A451:A514" si="7">A450+1</f>
         <v>448</v>
       </c>
-      <c r="B451" s="76"/>
-      <c r="C451" s="77"/>
-      <c r="D451" s="76"/>
-      <c r="E451" s="61"/>
-      <c r="F451" s="78"/>
-      <c r="G451" s="61"/>
+      <c r="B451" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C451" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D451" s="76">
+        <v>351</v>
+      </c>
+      <c r="E451" s="61">
+        <v>50</v>
+      </c>
+      <c r="F451" s="78">
+        <v>5</v>
+      </c>
+      <c r="G451" s="61">
+        <v>40</v>
+      </c>
       <c r="H451" s="61"/>
       <c r="I451" s="61"/>
       <c r="J451" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K451" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L451" s="61"/>
+        <v>10000</v>
+      </c>
+      <c r="L451" s="61">
+        <v>8000</v>
+      </c>
       <c r="M451" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N451" s="61"/>
     </row>
@@ -18365,26 +19245,38 @@
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
-      <c r="B453" s="76"/>
-      <c r="C453" s="77"/>
-      <c r="D453" s="76"/>
-      <c r="E453" s="61"/>
-      <c r="F453" s="78"/>
-      <c r="G453" s="61"/>
+      <c r="B453" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C453" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D453" s="76">
+        <v>352</v>
+      </c>
+      <c r="E453" s="61">
+        <v>20</v>
+      </c>
+      <c r="F453" s="78">
+        <v>5</v>
+      </c>
+      <c r="G453" s="61">
+        <v>40</v>
+      </c>
       <c r="H453" s="61"/>
       <c r="I453" s="61"/>
       <c r="J453" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K453" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L453" s="61"/>
       <c r="M453" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="N453" s="61"/>
     </row>
@@ -18393,26 +19285,38 @@
         <f t="shared" si="7"/>
         <v>451</v>
       </c>
-      <c r="B454" s="76"/>
-      <c r="C454" s="77"/>
-      <c r="D454" s="76"/>
-      <c r="E454" s="61"/>
-      <c r="F454" s="78"/>
-      <c r="G454" s="61"/>
+      <c r="B454" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C454" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D454" s="76">
+        <v>352</v>
+      </c>
+      <c r="E454" s="61">
+        <v>300</v>
+      </c>
+      <c r="F454" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G454" s="61">
+        <v>38</v>
+      </c>
       <c r="H454" s="61"/>
       <c r="I454" s="61"/>
       <c r="J454" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K454" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="L454" s="61"/>
       <c r="M454" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="N454" s="61"/>
     </row>
@@ -18449,26 +19353,38 @@
         <f t="shared" si="7"/>
         <v>453</v>
       </c>
-      <c r="B456" s="76"/>
-      <c r="C456" s="77"/>
-      <c r="D456" s="76"/>
-      <c r="E456" s="61"/>
-      <c r="F456" s="78"/>
-      <c r="G456" s="61"/>
+      <c r="B456" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C456" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D456" s="76">
+        <v>353</v>
+      </c>
+      <c r="E456" s="61">
+        <v>125</v>
+      </c>
+      <c r="F456" s="78">
+        <v>5</v>
+      </c>
+      <c r="G456" s="61">
+        <v>40</v>
+      </c>
       <c r="H456" s="61"/>
       <c r="I456" s="61"/>
       <c r="J456" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="K456" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="L456" s="61"/>
       <c r="M456" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="N456" s="61"/>
     </row>
@@ -18477,26 +19393,38 @@
         <f t="shared" si="7"/>
         <v>454</v>
       </c>
-      <c r="B457" s="76"/>
-      <c r="C457" s="77"/>
-      <c r="D457" s="76"/>
-      <c r="E457" s="61"/>
-      <c r="F457" s="78"/>
-      <c r="G457" s="61"/>
+      <c r="B457" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C457" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D457" s="76">
+        <v>353</v>
+      </c>
+      <c r="E457" s="61">
+        <v>50</v>
+      </c>
+      <c r="F457" s="78">
+        <v>5</v>
+      </c>
+      <c r="G457" s="61">
+        <v>38</v>
+      </c>
       <c r="H457" s="61"/>
       <c r="I457" s="61"/>
       <c r="J457" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K457" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="L457" s="61"/>
       <c r="M457" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="N457" s="61"/>
     </row>
@@ -18505,26 +19433,38 @@
         <f t="shared" si="7"/>
         <v>455</v>
       </c>
-      <c r="B458" s="76"/>
-      <c r="C458" s="77"/>
-      <c r="D458" s="76"/>
-      <c r="E458" s="61"/>
-      <c r="F458" s="78"/>
-      <c r="G458" s="61"/>
+      <c r="B458" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C458" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D458" s="76">
+        <v>353</v>
+      </c>
+      <c r="E458" s="61">
+        <v>20</v>
+      </c>
+      <c r="F458" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G458" s="61">
+        <v>38</v>
+      </c>
       <c r="H458" s="61"/>
       <c r="I458" s="61"/>
       <c r="J458" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K458" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="L458" s="61"/>
       <c r="M458" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="N458" s="61"/>
     </row>
@@ -18561,26 +19501,38 @@
         <f t="shared" si="7"/>
         <v>457</v>
       </c>
-      <c r="B460" s="76"/>
-      <c r="C460" s="77"/>
-      <c r="D460" s="76"/>
-      <c r="E460" s="61"/>
-      <c r="F460" s="78"/>
-      <c r="G460" s="61"/>
+      <c r="B460" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C460" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D460" s="76">
+        <v>354</v>
+      </c>
+      <c r="E460" s="61">
+        <v>400</v>
+      </c>
+      <c r="F460" s="78">
+        <v>5</v>
+      </c>
+      <c r="G460" s="61">
+        <v>40</v>
+      </c>
       <c r="H460" s="61"/>
       <c r="I460" s="61"/>
       <c r="J460" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K460" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L460" s="61"/>
       <c r="M460" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="N460" s="61"/>
     </row>
@@ -18589,26 +19541,38 @@
         <f t="shared" si="7"/>
         <v>458</v>
       </c>
-      <c r="B461" s="76"/>
-      <c r="C461" s="77"/>
-      <c r="D461" s="76"/>
-      <c r="E461" s="61"/>
-      <c r="F461" s="78"/>
-      <c r="G461" s="61"/>
+      <c r="B461" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C461" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D461" s="76">
+        <v>354</v>
+      </c>
+      <c r="E461" s="61">
+        <v>100</v>
+      </c>
+      <c r="F461" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G461" s="61">
+        <v>38</v>
+      </c>
       <c r="H461" s="61"/>
       <c r="I461" s="61"/>
       <c r="J461" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K461" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="L461" s="61"/>
       <c r="M461" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="N461" s="61"/>
     </row>
@@ -18617,28 +19581,40 @@
         <f t="shared" si="7"/>
         <v>459</v>
       </c>
-      <c r="B462" s="76"/>
-      <c r="C462" s="77"/>
-      <c r="D462" s="76"/>
-      <c r="E462" s="61"/>
-      <c r="F462" s="78"/>
-      <c r="G462" s="61"/>
-      <c r="H462" s="61"/>
-      <c r="I462" s="61"/>
-      <c r="J462" s="61">
-        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
-      </c>
-      <c r="K462" s="61">
-        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
-      </c>
-      <c r="L462" s="61"/>
-      <c r="M462" s="61">
-        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
-      </c>
-      <c r="N462" s="61"/>
+      <c r="B462" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C462" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D462" s="76">
+        <v>354</v>
+      </c>
+      <c r="E462" s="79">
+        <v>24</v>
+      </c>
+      <c r="F462" s="84">
+        <v>1.6</v>
+      </c>
+      <c r="G462" s="79"/>
+      <c r="H462" s="79"/>
+      <c r="I462" s="79"/>
+      <c r="J462" s="79">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="K462" s="79">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L462" s="79"/>
+      <c r="M462" s="79">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N462" s="79" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" s="53">
@@ -18673,26 +19649,38 @@
         <f t="shared" si="7"/>
         <v>461</v>
       </c>
-      <c r="B464" s="76"/>
-      <c r="C464" s="77"/>
-      <c r="D464" s="76"/>
-      <c r="E464" s="61"/>
-      <c r="F464" s="78"/>
-      <c r="G464" s="61"/>
+      <c r="B464" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C464" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D464" s="76">
+        <v>355</v>
+      </c>
+      <c r="E464" s="61">
+        <v>70</v>
+      </c>
+      <c r="F464" s="78">
+        <v>5</v>
+      </c>
+      <c r="G464" s="61">
+        <v>40</v>
+      </c>
       <c r="H464" s="61"/>
       <c r="I464" s="61"/>
       <c r="J464" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K464" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="L464" s="61"/>
       <c r="M464" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="N464" s="61"/>
     </row>
@@ -18701,26 +19689,38 @@
         <f t="shared" si="7"/>
         <v>462</v>
       </c>
-      <c r="B465" s="76"/>
-      <c r="C465" s="77"/>
-      <c r="D465" s="76"/>
-      <c r="E465" s="61"/>
-      <c r="F465" s="78"/>
-      <c r="G465" s="61"/>
+      <c r="B465" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C465" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D465" s="76">
+        <v>355</v>
+      </c>
+      <c r="E465" s="61">
+        <v>40</v>
+      </c>
+      <c r="F465" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G465" s="61">
+        <v>38</v>
+      </c>
       <c r="H465" s="61"/>
       <c r="I465" s="61"/>
       <c r="J465" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K465" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="L465" s="61"/>
       <c r="M465" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="N465" s="61"/>
     </row>
@@ -18729,26 +19729,38 @@
         <f t="shared" si="7"/>
         <v>463</v>
       </c>
-      <c r="B466" s="76"/>
-      <c r="C466" s="77"/>
-      <c r="D466" s="76"/>
-      <c r="E466" s="61"/>
-      <c r="F466" s="78"/>
-      <c r="G466" s="61"/>
+      <c r="B466" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C466" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D466" s="76">
+        <v>355</v>
+      </c>
+      <c r="E466" s="61">
+        <v>150</v>
+      </c>
+      <c r="F466" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G466" s="61">
+        <v>38</v>
+      </c>
       <c r="H466" s="61"/>
       <c r="I466" s="61"/>
       <c r="J466" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K466" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="L466" s="61"/>
       <c r="M466" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="N466" s="61"/>
     </row>
@@ -18785,26 +19797,38 @@
         <f t="shared" si="7"/>
         <v>465</v>
       </c>
-      <c r="B468" s="76"/>
-      <c r="C468" s="77"/>
-      <c r="D468" s="76"/>
-      <c r="E468" s="61"/>
-      <c r="F468" s="78"/>
-      <c r="G468" s="61"/>
+      <c r="B468" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C468" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D468" s="76">
+        <v>356</v>
+      </c>
+      <c r="E468" s="61">
+        <v>50</v>
+      </c>
+      <c r="F468" s="78">
+        <v>5</v>
+      </c>
+      <c r="G468" s="61">
+        <v>40</v>
+      </c>
       <c r="H468" s="61"/>
       <c r="I468" s="61"/>
       <c r="J468" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K468" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L468" s="61"/>
       <c r="M468" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N468" s="61"/>
     </row>
@@ -18841,26 +19865,38 @@
         <f t="shared" si="7"/>
         <v>467</v>
       </c>
-      <c r="B470" s="76"/>
-      <c r="C470" s="77"/>
-      <c r="D470" s="76"/>
-      <c r="E470" s="61"/>
-      <c r="F470" s="78"/>
-      <c r="G470" s="61"/>
+      <c r="B470" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C470" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D470" s="76">
+        <v>357</v>
+      </c>
+      <c r="E470" s="61">
+        <v>150</v>
+      </c>
+      <c r="F470" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G470" s="61">
+        <v>38</v>
+      </c>
       <c r="H470" s="61"/>
       <c r="I470" s="61"/>
       <c r="J470" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K470" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="L470" s="61"/>
       <c r="M470" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="N470" s="61"/>
     </row>
@@ -18897,26 +19933,38 @@
         <f t="shared" si="7"/>
         <v>469</v>
       </c>
-      <c r="B472" s="76"/>
-      <c r="C472" s="77"/>
-      <c r="D472" s="76"/>
-      <c r="E472" s="61"/>
-      <c r="F472" s="78"/>
-      <c r="G472" s="61"/>
+      <c r="B472" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C472" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D472" s="76">
+        <v>358</v>
+      </c>
+      <c r="E472" s="61">
+        <v>130</v>
+      </c>
+      <c r="F472" s="78">
+        <v>5</v>
+      </c>
+      <c r="G472" s="61">
+        <v>40</v>
+      </c>
       <c r="H472" s="61"/>
       <c r="I472" s="61"/>
       <c r="J472" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="K472" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="L472" s="61"/>
       <c r="M472" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="N472" s="61"/>
     </row>
@@ -18925,26 +19973,38 @@
         <f t="shared" si="7"/>
         <v>470</v>
       </c>
-      <c r="B473" s="76"/>
-      <c r="C473" s="77"/>
-      <c r="D473" s="76"/>
-      <c r="E473" s="61"/>
-      <c r="F473" s="78"/>
-      <c r="G473" s="61"/>
+      <c r="B473" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C473" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D473" s="76">
+        <v>358</v>
+      </c>
+      <c r="E473" s="61">
+        <v>100</v>
+      </c>
+      <c r="F473" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G473" s="61">
+        <v>38</v>
+      </c>
       <c r="H473" s="61"/>
       <c r="I473" s="61"/>
       <c r="J473" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K473" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="L473" s="61"/>
       <c r="M473" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="N473" s="61"/>
     </row>
@@ -18953,28 +20013,4389 @@
         <f t="shared" si="7"/>
         <v>471</v>
       </c>
-      <c r="B474" s="76"/>
-      <c r="C474" s="77"/>
-      <c r="D474" s="76"/>
-      <c r="E474" s="61"/>
-      <c r="F474" s="78"/>
-      <c r="G474" s="61"/>
+      <c r="B474" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C474" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D474" s="76">
+        <v>358</v>
+      </c>
+      <c r="E474" s="61">
+        <v>150</v>
+      </c>
+      <c r="F474" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G474" s="61">
+        <v>38</v>
+      </c>
       <c r="H474" s="61"/>
       <c r="I474" s="61"/>
       <c r="J474" s="61">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K474" s="61">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="L474" s="61"/>
       <c r="M474" s="61">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="N474" s="61"/>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A475" s="53">
+        <f t="shared" si="7"/>
+        <v>472</v>
+      </c>
+      <c r="B475" s="76"/>
+      <c r="C475" s="77"/>
+      <c r="D475" s="76"/>
+      <c r="E475" s="61"/>
+      <c r="F475" s="78"/>
+      <c r="G475" s="61"/>
+      <c r="H475" s="61"/>
+      <c r="I475" s="61"/>
+      <c r="J475" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K475" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L475" s="61"/>
+      <c r="M475" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N475" s="61"/>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A476" s="53">
+        <f t="shared" si="7"/>
+        <v>473</v>
+      </c>
+      <c r="B476" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C476" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D476" s="76">
+        <v>359</v>
+      </c>
+      <c r="E476" s="61">
+        <v>10</v>
+      </c>
+      <c r="F476" s="78">
+        <v>5</v>
+      </c>
+      <c r="G476" s="61">
+        <v>40</v>
+      </c>
+      <c r="H476" s="61"/>
+      <c r="I476" s="61"/>
+      <c r="J476" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>50</v>
+      </c>
+      <c r="K476" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>2000</v>
+      </c>
+      <c r="L476" s="61"/>
+      <c r="M476" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>2000</v>
+      </c>
+      <c r="N476" s="61"/>
+    </row>
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A477" s="53">
+        <f t="shared" si="7"/>
+        <v>474</v>
+      </c>
+      <c r="B477" s="76"/>
+      <c r="C477" s="77"/>
+      <c r="D477" s="76"/>
+      <c r="E477" s="61"/>
+      <c r="F477" s="78"/>
+      <c r="G477" s="61"/>
+      <c r="H477" s="61"/>
+      <c r="I477" s="61"/>
+      <c r="J477" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K477" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L477" s="61"/>
+      <c r="M477" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N477" s="61"/>
+    </row>
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A478" s="53">
+        <f t="shared" si="7"/>
+        <v>475</v>
+      </c>
+      <c r="B478" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C478" s="77">
+        <v>45352</v>
+      </c>
+      <c r="D478" s="76">
+        <v>360</v>
+      </c>
+      <c r="E478" s="61"/>
+      <c r="F478" s="78"/>
+      <c r="G478" s="61"/>
+      <c r="H478" s="61"/>
+      <c r="I478" s="61"/>
+      <c r="J478" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K478" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L478" s="61"/>
+      <c r="M478" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N478" s="61"/>
+    </row>
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A479" s="53">
+        <f t="shared" si="7"/>
+        <v>476</v>
+      </c>
+      <c r="B479" s="76"/>
+      <c r="C479" s="77"/>
+      <c r="D479" s="76"/>
+      <c r="E479" s="61"/>
+      <c r="F479" s="78"/>
+      <c r="G479" s="61"/>
+      <c r="H479" s="61"/>
+      <c r="I479" s="61"/>
+      <c r="J479" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K479" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L479" s="61"/>
+      <c r="M479" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N479" s="61"/>
+    </row>
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A480" s="53">
+        <f t="shared" si="7"/>
+        <v>477</v>
+      </c>
+      <c r="B480" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C480" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D480" s="76">
+        <v>361</v>
+      </c>
+      <c r="E480" s="61">
+        <v>400</v>
+      </c>
+      <c r="F480" s="78">
+        <v>5</v>
+      </c>
+      <c r="G480" s="61">
+        <v>39</v>
+      </c>
+      <c r="H480" s="61"/>
+      <c r="I480" s="61"/>
+      <c r="J480" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>2000</v>
+      </c>
+      <c r="K480" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>78000</v>
+      </c>
+      <c r="L480" s="61"/>
+      <c r="M480" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>78000</v>
+      </c>
+      <c r="N480" s="61"/>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A481" s="53">
+        <f t="shared" si="7"/>
+        <v>478</v>
+      </c>
+      <c r="B481" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C481" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D481" s="76">
+        <v>361</v>
+      </c>
+      <c r="E481" s="61">
+        <v>50</v>
+      </c>
+      <c r="F481" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G481" s="61">
+        <v>38</v>
+      </c>
+      <c r="H481" s="61"/>
+      <c r="I481" s="61"/>
+      <c r="J481" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>40</v>
+      </c>
+      <c r="K481" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>1900</v>
+      </c>
+      <c r="L481" s="61"/>
+      <c r="M481" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>1900</v>
+      </c>
+      <c r="N481" s="61"/>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A482" s="53">
+        <f t="shared" si="7"/>
+        <v>479</v>
+      </c>
+      <c r="B482" s="76"/>
+      <c r="C482" s="77"/>
+      <c r="D482" s="76"/>
+      <c r="E482" s="61"/>
+      <c r="F482" s="78"/>
+      <c r="G482" s="61"/>
+      <c r="H482" s="61"/>
+      <c r="I482" s="61"/>
+      <c r="J482" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K482" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L482" s="61"/>
+      <c r="M482" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N482" s="61"/>
+    </row>
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A483" s="53">
+        <f t="shared" si="7"/>
+        <v>480</v>
+      </c>
+      <c r="B483" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C483" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D483" s="76">
+        <v>362</v>
+      </c>
+      <c r="E483" s="61">
+        <v>2</v>
+      </c>
+      <c r="F483" s="78">
+        <v>5</v>
+      </c>
+      <c r="G483" s="61">
+        <v>40</v>
+      </c>
+      <c r="H483" s="61"/>
+      <c r="I483" s="61"/>
+      <c r="J483" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>10</v>
+      </c>
+      <c r="K483" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>400</v>
+      </c>
+      <c r="L483" s="61">
+        <v>400</v>
+      </c>
+      <c r="M483" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N483" s="61"/>
+    </row>
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A484" s="53">
+        <f t="shared" si="7"/>
+        <v>481</v>
+      </c>
+      <c r="B484" s="76"/>
+      <c r="C484" s="77"/>
+      <c r="D484" s="76"/>
+      <c r="E484" s="61"/>
+      <c r="F484" s="78"/>
+      <c r="G484" s="61"/>
+      <c r="H484" s="61"/>
+      <c r="I484" s="61"/>
+      <c r="J484" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K484" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L484" s="61"/>
+      <c r="M484" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N484" s="61"/>
+    </row>
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A485" s="53">
+        <f t="shared" si="7"/>
+        <v>482</v>
+      </c>
+      <c r="B485" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C485" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D485" s="76">
+        <v>363</v>
+      </c>
+      <c r="E485" s="61">
+        <v>60</v>
+      </c>
+      <c r="F485" s="78">
+        <v>5</v>
+      </c>
+      <c r="G485" s="79"/>
+      <c r="H485" s="61"/>
+      <c r="I485" s="61"/>
+      <c r="J485" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>300</v>
+      </c>
+      <c r="K485" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L485" s="61"/>
+      <c r="M485" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N485" s="61"/>
+    </row>
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A486" s="53">
+        <f t="shared" si="7"/>
+        <v>483</v>
+      </c>
+      <c r="B486" s="76"/>
+      <c r="C486" s="77"/>
+      <c r="D486" s="76"/>
+      <c r="E486" s="61"/>
+      <c r="F486" s="78"/>
+      <c r="G486" s="61"/>
+      <c r="H486" s="61"/>
+      <c r="I486" s="61"/>
+      <c r="J486" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K486" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L486" s="61"/>
+      <c r="M486" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N486" s="61"/>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A487" s="53">
+        <f t="shared" si="7"/>
+        <v>484</v>
+      </c>
+      <c r="B487" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C487" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D487" s="76">
+        <v>364</v>
+      </c>
+      <c r="E487" s="61">
+        <v>500</v>
+      </c>
+      <c r="F487" s="78">
+        <v>5</v>
+      </c>
+      <c r="G487" s="61">
+        <v>39</v>
+      </c>
+      <c r="H487" s="61"/>
+      <c r="I487" s="61">
+        <v>200</v>
+      </c>
+      <c r="J487" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>2500</v>
+      </c>
+      <c r="K487" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>97700</v>
+      </c>
+      <c r="L487" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]</f>
+        <v>97700</v>
+      </c>
+      <c r="M487" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N487" s="61"/>
+    </row>
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A488" s="53">
+        <f t="shared" si="7"/>
+        <v>485</v>
+      </c>
+      <c r="B488" s="76"/>
+      <c r="C488" s="77"/>
+      <c r="D488" s="76"/>
+      <c r="E488" s="61"/>
+      <c r="F488" s="78"/>
+      <c r="G488" s="61"/>
+      <c r="H488" s="61"/>
+      <c r="I488" s="61"/>
+      <c r="J488" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K488" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L488" s="61"/>
+      <c r="M488" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N488" s="61"/>
+    </row>
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A489" s="53">
+        <f t="shared" si="7"/>
+        <v>486</v>
+      </c>
+      <c r="B489" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C489" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D489" s="76">
+        <v>365</v>
+      </c>
+      <c r="E489" s="61">
+        <v>5</v>
+      </c>
+      <c r="F489" s="78">
+        <v>5</v>
+      </c>
+      <c r="G489" s="61">
+        <v>40</v>
+      </c>
+      <c r="H489" s="61"/>
+      <c r="I489" s="61"/>
+      <c r="J489" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>25</v>
+      </c>
+      <c r="K489" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>1000</v>
+      </c>
+      <c r="L489" s="61">
+        <v>1000</v>
+      </c>
+      <c r="M489" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N489" s="61"/>
+    </row>
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A490" s="53">
+        <f t="shared" si="7"/>
+        <v>487</v>
+      </c>
+      <c r="B490" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C490" s="77">
+        <v>45354</v>
+      </c>
+      <c r="D490" s="76">
+        <v>365</v>
+      </c>
+      <c r="E490" s="61">
+        <v>20</v>
+      </c>
+      <c r="F490" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="G490" s="61">
+        <v>38</v>
+      </c>
+      <c r="H490" s="61">
+        <v>20</v>
+      </c>
+      <c r="I490" s="61"/>
+      <c r="J490" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>32</v>
+      </c>
+      <c r="K490" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>1500</v>
+      </c>
+      <c r="L490" s="61">
+        <v>1500</v>
+      </c>
+      <c r="M490" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N490" s="61"/>
+    </row>
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A491" s="53">
+        <f t="shared" si="7"/>
+        <v>488</v>
+      </c>
+      <c r="B491" s="76"/>
+      <c r="C491" s="77"/>
+      <c r="D491" s="76"/>
+      <c r="E491" s="61"/>
+      <c r="F491" s="78"/>
+      <c r="G491" s="61"/>
+      <c r="H491" s="61"/>
+      <c r="I491" s="61"/>
+      <c r="J491" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K491" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L491" s="61"/>
+      <c r="M491" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N491" s="61"/>
+    </row>
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A492" s="53">
+        <f t="shared" si="7"/>
+        <v>489</v>
+      </c>
+      <c r="B492" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C492" s="77">
+        <v>45355</v>
+      </c>
+      <c r="D492" s="76">
+        <v>366</v>
+      </c>
+      <c r="E492" s="61">
+        <v>13</v>
+      </c>
+      <c r="F492" s="78">
+        <v>5</v>
+      </c>
+      <c r="G492" s="61">
+        <v>39</v>
+      </c>
+      <c r="H492" s="61"/>
+      <c r="I492" s="61"/>
+      <c r="J492" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>65</v>
+      </c>
+      <c r="K492" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>2535</v>
+      </c>
+      <c r="L492" s="61"/>
+      <c r="M492" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>2535</v>
+      </c>
+      <c r="N492" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A493" s="53">
+        <f t="shared" si="7"/>
+        <v>490</v>
+      </c>
+      <c r="B493" s="76"/>
+      <c r="C493" s="77"/>
+      <c r="D493" s="76"/>
+      <c r="E493" s="61"/>
+      <c r="F493" s="78"/>
+      <c r="G493" s="61"/>
+      <c r="H493" s="61"/>
+      <c r="I493" s="61"/>
+      <c r="J493" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K493" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L493" s="61"/>
+      <c r="M493" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N493" s="61"/>
+    </row>
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A494" s="53">
+        <f t="shared" si="7"/>
+        <v>491</v>
+      </c>
+      <c r="B494" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C494" s="77">
+        <v>45355</v>
+      </c>
+      <c r="D494" s="76">
+        <v>367</v>
+      </c>
+      <c r="E494" s="61">
+        <v>60</v>
+      </c>
+      <c r="F494" s="78">
+        <v>5</v>
+      </c>
+      <c r="G494" s="61">
+        <v>40</v>
+      </c>
+      <c r="H494" s="61"/>
+      <c r="I494" s="61"/>
+      <c r="J494" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>300</v>
+      </c>
+      <c r="K494" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>12000</v>
+      </c>
+      <c r="L494" s="61">
+        <v>30000</v>
+      </c>
+      <c r="M494" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>-18000</v>
+      </c>
+      <c r="N494" s="61"/>
+    </row>
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A495" s="53">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+      <c r="B495" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C495" s="77">
+        <v>45355</v>
+      </c>
+      <c r="D495" s="76">
+        <v>367</v>
+      </c>
+      <c r="E495" s="61">
+        <v>26</v>
+      </c>
+      <c r="F495" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G495" s="61">
+        <v>38</v>
+      </c>
+      <c r="H495" s="61"/>
+      <c r="I495" s="61"/>
+      <c r="J495" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>20.8</v>
+      </c>
+      <c r="K495" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>988</v>
+      </c>
+      <c r="L495" s="61"/>
+      <c r="M495" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>988</v>
+      </c>
+      <c r="N495" s="61"/>
+    </row>
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A496" s="53">
+        <f t="shared" si="7"/>
+        <v>493</v>
+      </c>
+      <c r="B496" s="76"/>
+      <c r="C496" s="77"/>
+      <c r="D496" s="76"/>
+      <c r="E496" s="61"/>
+      <c r="F496" s="78"/>
+      <c r="G496" s="61"/>
+      <c r="H496" s="61"/>
+      <c r="I496" s="61"/>
+      <c r="J496" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K496" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L496" s="61"/>
+      <c r="M496" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N496" s="61"/>
+    </row>
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A497" s="53">
+        <f t="shared" si="7"/>
+        <v>494</v>
+      </c>
+      <c r="B497" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C497" s="77">
+        <v>45355</v>
+      </c>
+      <c r="D497" s="76">
+        <v>368</v>
+      </c>
+      <c r="E497" s="61">
+        <v>139</v>
+      </c>
+      <c r="F497" s="78">
+        <v>5</v>
+      </c>
+      <c r="G497" s="61">
+        <v>44</v>
+      </c>
+      <c r="H497" s="61"/>
+      <c r="I497" s="61"/>
+      <c r="J497" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>695</v>
+      </c>
+      <c r="K497" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>30580</v>
+      </c>
+      <c r="L497" s="61"/>
+      <c r="M497" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>30580</v>
+      </c>
+      <c r="N497" s="61"/>
+    </row>
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A498" s="53">
+        <f t="shared" si="7"/>
+        <v>495</v>
+      </c>
+      <c r="B498" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C498" s="77">
+        <v>45355</v>
+      </c>
+      <c r="D498" s="76">
+        <v>368</v>
+      </c>
+      <c r="E498" s="61">
+        <v>41</v>
+      </c>
+      <c r="F498" s="78">
+        <v>5</v>
+      </c>
+      <c r="G498" s="61">
+        <v>40</v>
+      </c>
+      <c r="H498" s="61"/>
+      <c r="I498" s="61"/>
+      <c r="J498" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>205</v>
+      </c>
+      <c r="K498" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>8200</v>
+      </c>
+      <c r="L498" s="61"/>
+      <c r="M498" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>8200</v>
+      </c>
+      <c r="N498" s="61"/>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A499" s="53">
+        <f t="shared" si="7"/>
+        <v>496</v>
+      </c>
+      <c r="B499" s="76"/>
+      <c r="C499" s="77"/>
+      <c r="D499" s="76"/>
+      <c r="E499" s="61"/>
+      <c r="F499" s="78"/>
+      <c r="G499" s="61"/>
+      <c r="H499" s="61"/>
+      <c r="I499" s="61"/>
+      <c r="J499" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K499" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L499" s="61"/>
+      <c r="M499" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N499" s="61"/>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A500" s="53">
+        <f t="shared" si="7"/>
+        <v>497</v>
+      </c>
+      <c r="B500" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C500" s="77">
+        <v>45329</v>
+      </c>
+      <c r="D500" s="76">
+        <v>369</v>
+      </c>
+      <c r="E500" s="61">
+        <v>230</v>
+      </c>
+      <c r="F500" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G500" s="61">
+        <v>38</v>
+      </c>
+      <c r="H500" s="61"/>
+      <c r="I500" s="61"/>
+      <c r="J500" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>184</v>
+      </c>
+      <c r="K500" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>8740</v>
+      </c>
+      <c r="L500" s="61"/>
+      <c r="M500" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>8740</v>
+      </c>
+      <c r="N500" s="61"/>
+    </row>
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A501" s="53">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+      <c r="B501" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C501" s="77">
+        <v>45329</v>
+      </c>
+      <c r="D501" s="76">
+        <v>369</v>
+      </c>
+      <c r="E501" s="61">
+        <v>100</v>
+      </c>
+      <c r="F501" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G501" s="61">
+        <v>40</v>
+      </c>
+      <c r="H501" s="61"/>
+      <c r="I501" s="61"/>
+      <c r="J501" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>80</v>
+      </c>
+      <c r="K501" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>4000</v>
+      </c>
+      <c r="L501" s="61"/>
+      <c r="M501" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>4000</v>
+      </c>
+      <c r="N501" s="61"/>
+    </row>
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A502" s="53">
+        <f t="shared" si="7"/>
+        <v>499</v>
+      </c>
+      <c r="B502" s="76"/>
+      <c r="C502" s="77"/>
+      <c r="D502" s="76"/>
+      <c r="E502" s="61"/>
+      <c r="F502" s="78"/>
+      <c r="G502" s="61"/>
+      <c r="H502" s="61"/>
+      <c r="I502" s="61"/>
+      <c r="J502" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K502" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L502" s="61"/>
+      <c r="M502" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N502" s="61"/>
+    </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A503" s="53">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="B503" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C503" s="77">
+        <v>45329</v>
+      </c>
+      <c r="D503" s="76">
+        <v>370</v>
+      </c>
+      <c r="E503" s="61">
+        <v>200</v>
+      </c>
+      <c r="F503" s="78">
+        <v>5</v>
+      </c>
+      <c r="G503" s="61">
+        <v>40</v>
+      </c>
+      <c r="H503" s="61"/>
+      <c r="I503" s="61"/>
+      <c r="J503" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>1000</v>
+      </c>
+      <c r="K503" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>40000</v>
+      </c>
+      <c r="L503" s="61"/>
+      <c r="M503" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>40000</v>
+      </c>
+      <c r="N503" s="61"/>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A504" s="53">
+        <f t="shared" si="7"/>
+        <v>501</v>
+      </c>
+      <c r="B504" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C504" s="77">
+        <v>45329</v>
+      </c>
+      <c r="D504" s="76">
+        <v>370</v>
+      </c>
+      <c r="E504" s="61">
+        <v>40</v>
+      </c>
+      <c r="F504" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G504" s="61">
+        <v>38</v>
+      </c>
+      <c r="H504" s="61"/>
+      <c r="I504" s="61"/>
+      <c r="J504" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>32</v>
+      </c>
+      <c r="K504" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>1520</v>
+      </c>
+      <c r="L504" s="61"/>
+      <c r="M504" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>1520</v>
+      </c>
+      <c r="N504" s="61"/>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A505" s="53">
+        <f t="shared" si="7"/>
+        <v>502</v>
+      </c>
+      <c r="B505" s="76"/>
+      <c r="C505" s="77"/>
+      <c r="D505" s="76"/>
+      <c r="E505" s="61"/>
+      <c r="F505" s="78"/>
+      <c r="G505" s="61"/>
+      <c r="H505" s="61"/>
+      <c r="I505" s="61"/>
+      <c r="J505" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K505" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L505" s="61"/>
+      <c r="M505" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N505" s="61"/>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A506" s="53">
+        <f t="shared" si="7"/>
+        <v>503</v>
+      </c>
+      <c r="B506" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C506" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D506" s="76">
+        <v>371</v>
+      </c>
+      <c r="E506" s="61">
+        <v>46</v>
+      </c>
+      <c r="F506" s="78">
+        <v>5</v>
+      </c>
+      <c r="G506" s="61">
+        <v>40</v>
+      </c>
+      <c r="H506" s="61"/>
+      <c r="I506" s="61"/>
+      <c r="J506" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>230</v>
+      </c>
+      <c r="K506" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>9200</v>
+      </c>
+      <c r="L506" s="61"/>
+      <c r="M506" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>9200</v>
+      </c>
+      <c r="N506" s="61"/>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A507" s="53">
+        <f t="shared" si="7"/>
+        <v>504</v>
+      </c>
+      <c r="B507" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C507" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D507" s="76">
+        <v>371</v>
+      </c>
+      <c r="E507" s="61">
+        <v>3</v>
+      </c>
+      <c r="F507" s="78">
+        <v>10</v>
+      </c>
+      <c r="G507" s="61">
+        <v>44</v>
+      </c>
+      <c r="H507" s="61"/>
+      <c r="I507" s="61"/>
+      <c r="J507" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>30</v>
+      </c>
+      <c r="K507" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>1320</v>
+      </c>
+      <c r="L507" s="61"/>
+      <c r="M507" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>1320</v>
+      </c>
+      <c r="N507" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A508" s="53">
+        <f t="shared" si="7"/>
+        <v>505</v>
+      </c>
+      <c r="B508" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C508" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D508" s="76">
+        <v>371</v>
+      </c>
+      <c r="E508" s="61">
+        <v>1</v>
+      </c>
+      <c r="F508" s="78">
+        <v>5</v>
+      </c>
+      <c r="G508" s="61">
+        <v>44</v>
+      </c>
+      <c r="H508" s="61"/>
+      <c r="I508" s="61"/>
+      <c r="J508" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>5</v>
+      </c>
+      <c r="K508" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>220</v>
+      </c>
+      <c r="L508" s="61"/>
+      <c r="M508" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>220</v>
+      </c>
+      <c r="N508" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A509" s="53">
+        <f t="shared" si="7"/>
+        <v>506</v>
+      </c>
+      <c r="B509" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C509" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D509" s="76">
+        <v>371</v>
+      </c>
+      <c r="E509" s="61">
+        <v>100</v>
+      </c>
+      <c r="F509" s="78">
+        <v>1</v>
+      </c>
+      <c r="G509" s="61">
+        <v>38</v>
+      </c>
+      <c r="H509" s="61"/>
+      <c r="I509" s="61"/>
+      <c r="J509" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>100</v>
+      </c>
+      <c r="K509" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>3800</v>
+      </c>
+      <c r="L509" s="61"/>
+      <c r="M509" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>3800</v>
+      </c>
+      <c r="N509" s="61"/>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A510" s="53">
+        <f t="shared" si="7"/>
+        <v>507</v>
+      </c>
+      <c r="B510" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C510" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D510" s="76">
+        <v>371</v>
+      </c>
+      <c r="E510" s="61">
+        <v>51</v>
+      </c>
+      <c r="F510" s="78">
+        <v>1</v>
+      </c>
+      <c r="G510" s="61">
+        <v>50</v>
+      </c>
+      <c r="H510" s="61"/>
+      <c r="I510" s="61"/>
+      <c r="J510" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>51</v>
+      </c>
+      <c r="K510" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>2550</v>
+      </c>
+      <c r="L510" s="61"/>
+      <c r="M510" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>2550</v>
+      </c>
+      <c r="N510" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A511" s="53">
+        <f t="shared" si="7"/>
+        <v>508</v>
+      </c>
+      <c r="B511" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C511" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D511" s="76">
+        <v>371</v>
+      </c>
+      <c r="E511" s="61">
+        <v>60</v>
+      </c>
+      <c r="F511" s="78">
+        <v>1</v>
+      </c>
+      <c r="G511" s="61">
+        <v>50</v>
+      </c>
+      <c r="H511" s="61"/>
+      <c r="I511" s="61"/>
+      <c r="J511" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>60</v>
+      </c>
+      <c r="K511" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>3000</v>
+      </c>
+      <c r="L511" s="61"/>
+      <c r="M511" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>3000</v>
+      </c>
+      <c r="N511" s="61"/>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A512" s="53">
+        <f t="shared" si="7"/>
+        <v>509</v>
+      </c>
+      <c r="B512" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C512" s="77">
+        <v>45359</v>
+      </c>
+      <c r="D512" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="E512" s="61">
+        <v>10</v>
+      </c>
+      <c r="F512" s="78">
+        <v>2</v>
+      </c>
+      <c r="G512" s="61">
+        <v>100</v>
+      </c>
+      <c r="H512" s="61"/>
+      <c r="I512" s="61"/>
+      <c r="J512" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>20</v>
+      </c>
+      <c r="K512" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>2000</v>
+      </c>
+      <c r="L512" s="61"/>
+      <c r="M512" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>2000</v>
+      </c>
+      <c r="N512" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A513" s="53">
+        <f t="shared" si="7"/>
+        <v>510</v>
+      </c>
+      <c r="B513" s="76"/>
+      <c r="C513" s="77"/>
+      <c r="D513" s="76"/>
+      <c r="E513" s="61"/>
+      <c r="F513" s="78"/>
+      <c r="G513" s="61"/>
+      <c r="H513" s="61"/>
+      <c r="I513" s="61"/>
+      <c r="J513" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K513" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L513" s="61"/>
+      <c r="M513" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N513" s="61"/>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A514" s="53">
+        <f t="shared" si="7"/>
+        <v>511</v>
+      </c>
+      <c r="B514" s="76"/>
+      <c r="C514" s="77"/>
+      <c r="D514" s="76"/>
+      <c r="E514" s="61"/>
+      <c r="F514" s="78"/>
+      <c r="G514" s="61"/>
+      <c r="H514" s="61"/>
+      <c r="I514" s="61"/>
+      <c r="J514" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K514" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L514" s="61"/>
+      <c r="M514" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N514" s="61"/>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A515" s="53">
+        <f t="shared" ref="A515:A578" si="8">A514+1</f>
+        <v>512</v>
+      </c>
+      <c r="B515" s="76"/>
+      <c r="C515" s="77"/>
+      <c r="D515" s="76"/>
+      <c r="E515" s="61"/>
+      <c r="F515" s="78"/>
+      <c r="G515" s="61"/>
+      <c r="H515" s="61"/>
+      <c r="I515" s="61"/>
+      <c r="J515" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K515" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L515" s="61"/>
+      <c r="M515" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N515" s="61"/>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A516" s="53">
+        <f t="shared" si="8"/>
+        <v>513</v>
+      </c>
+      <c r="B516" s="76"/>
+      <c r="C516" s="77"/>
+      <c r="D516" s="76"/>
+      <c r="E516" s="61"/>
+      <c r="F516" s="78"/>
+      <c r="G516" s="61"/>
+      <c r="H516" s="61"/>
+      <c r="I516" s="61"/>
+      <c r="J516" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K516" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L516" s="61"/>
+      <c r="M516" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N516" s="61"/>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A517" s="53">
+        <f t="shared" si="8"/>
+        <v>514</v>
+      </c>
+      <c r="B517" s="76"/>
+      <c r="C517" s="77"/>
+      <c r="D517" s="76"/>
+      <c r="E517" s="61"/>
+      <c r="F517" s="78"/>
+      <c r="G517" s="61"/>
+      <c r="H517" s="61"/>
+      <c r="I517" s="61"/>
+      <c r="J517" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K517" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L517" s="61"/>
+      <c r="M517" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N517" s="61"/>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A518" s="53">
+        <f t="shared" si="8"/>
+        <v>515</v>
+      </c>
+      <c r="B518" s="76"/>
+      <c r="C518" s="77"/>
+      <c r="D518" s="76"/>
+      <c r="E518" s="61"/>
+      <c r="F518" s="78"/>
+      <c r="G518" s="61"/>
+      <c r="H518" s="61"/>
+      <c r="I518" s="61"/>
+      <c r="J518" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K518" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L518" s="61"/>
+      <c r="M518" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N518" s="61"/>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A519" s="53">
+        <f t="shared" si="8"/>
+        <v>516</v>
+      </c>
+      <c r="B519" s="76"/>
+      <c r="C519" s="77"/>
+      <c r="D519" s="76"/>
+      <c r="E519" s="61"/>
+      <c r="F519" s="78"/>
+      <c r="G519" s="61"/>
+      <c r="H519" s="61"/>
+      <c r="I519" s="61"/>
+      <c r="J519" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K519" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L519" s="61"/>
+      <c r="M519" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N519" s="61"/>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A520" s="53">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="B520" s="76"/>
+      <c r="C520" s="77"/>
+      <c r="D520" s="76"/>
+      <c r="E520" s="61"/>
+      <c r="F520" s="78"/>
+      <c r="G520" s="61"/>
+      <c r="H520" s="61"/>
+      <c r="I520" s="61"/>
+      <c r="J520" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K520" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L520" s="61"/>
+      <c r="M520" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N520" s="61"/>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A521" s="53">
+        <f t="shared" si="8"/>
+        <v>518</v>
+      </c>
+      <c r="B521" s="76"/>
+      <c r="C521" s="77"/>
+      <c r="D521" s="76"/>
+      <c r="E521" s="61"/>
+      <c r="F521" s="78"/>
+      <c r="G521" s="61"/>
+      <c r="H521" s="61"/>
+      <c r="I521" s="61"/>
+      <c r="J521" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K521" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L521" s="61"/>
+      <c r="M521" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N521" s="61"/>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A522" s="53">
+        <f t="shared" si="8"/>
+        <v>519</v>
+      </c>
+      <c r="B522" s="76"/>
+      <c r="C522" s="77"/>
+      <c r="D522" s="76"/>
+      <c r="E522" s="61"/>
+      <c r="F522" s="78"/>
+      <c r="G522" s="61"/>
+      <c r="H522" s="61"/>
+      <c r="I522" s="61"/>
+      <c r="J522" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K522" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L522" s="61"/>
+      <c r="M522" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N522" s="61"/>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A523" s="53">
+        <f t="shared" si="8"/>
+        <v>520</v>
+      </c>
+      <c r="B523" s="76"/>
+      <c r="C523" s="77"/>
+      <c r="D523" s="76"/>
+      <c r="E523" s="61"/>
+      <c r="F523" s="78"/>
+      <c r="G523" s="61"/>
+      <c r="H523" s="61"/>
+      <c r="I523" s="61"/>
+      <c r="J523" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K523" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L523" s="61"/>
+      <c r="M523" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N523" s="61"/>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A524" s="53">
+        <f t="shared" si="8"/>
+        <v>521</v>
+      </c>
+      <c r="B524" s="76"/>
+      <c r="C524" s="77"/>
+      <c r="D524" s="76"/>
+      <c r="E524" s="61"/>
+      <c r="F524" s="78"/>
+      <c r="G524" s="61"/>
+      <c r="H524" s="61"/>
+      <c r="I524" s="61"/>
+      <c r="J524" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K524" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L524" s="61"/>
+      <c r="M524" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N524" s="61"/>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A525" s="53">
+        <f t="shared" si="8"/>
+        <v>522</v>
+      </c>
+      <c r="B525" s="76"/>
+      <c r="C525" s="77"/>
+      <c r="D525" s="76"/>
+      <c r="E525" s="61"/>
+      <c r="F525" s="78"/>
+      <c r="G525" s="61"/>
+      <c r="H525" s="61"/>
+      <c r="I525" s="61"/>
+      <c r="J525" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K525" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L525" s="61"/>
+      <c r="M525" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N525" s="61"/>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A526" s="53">
+        <f t="shared" si="8"/>
+        <v>523</v>
+      </c>
+      <c r="B526" s="76"/>
+      <c r="C526" s="77"/>
+      <c r="D526" s="76"/>
+      <c r="E526" s="61"/>
+      <c r="F526" s="78"/>
+      <c r="G526" s="61"/>
+      <c r="H526" s="61"/>
+      <c r="I526" s="61"/>
+      <c r="J526" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K526" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L526" s="61"/>
+      <c r="M526" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N526" s="61"/>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A527" s="53">
+        <f t="shared" si="8"/>
+        <v>524</v>
+      </c>
+      <c r="B527" s="76"/>
+      <c r="C527" s="77"/>
+      <c r="D527" s="76"/>
+      <c r="E527" s="61"/>
+      <c r="F527" s="78"/>
+      <c r="G527" s="61"/>
+      <c r="H527" s="61"/>
+      <c r="I527" s="61"/>
+      <c r="J527" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K527" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L527" s="61"/>
+      <c r="M527" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N527" s="61"/>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A528" s="53">
+        <f t="shared" si="8"/>
+        <v>525</v>
+      </c>
+      <c r="B528" s="76"/>
+      <c r="C528" s="77"/>
+      <c r="D528" s="76"/>
+      <c r="E528" s="61"/>
+      <c r="F528" s="78"/>
+      <c r="G528" s="61"/>
+      <c r="H528" s="61"/>
+      <c r="I528" s="61"/>
+      <c r="J528" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K528" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L528" s="61"/>
+      <c r="M528" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N528" s="61"/>
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A529" s="53">
+        <f t="shared" si="8"/>
+        <v>526</v>
+      </c>
+      <c r="B529" s="76"/>
+      <c r="C529" s="77"/>
+      <c r="D529" s="76"/>
+      <c r="E529" s="61"/>
+      <c r="F529" s="78"/>
+      <c r="G529" s="61"/>
+      <c r="H529" s="61"/>
+      <c r="I529" s="61"/>
+      <c r="J529" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K529" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L529" s="61"/>
+      <c r="M529" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N529" s="61"/>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A530" s="53">
+        <f t="shared" si="8"/>
+        <v>527</v>
+      </c>
+      <c r="B530" s="76"/>
+      <c r="C530" s="77"/>
+      <c r="D530" s="76"/>
+      <c r="E530" s="61"/>
+      <c r="F530" s="78"/>
+      <c r="G530" s="61"/>
+      <c r="H530" s="61"/>
+      <c r="I530" s="61"/>
+      <c r="J530" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K530" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L530" s="61"/>
+      <c r="M530" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N530" s="61"/>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A531" s="53">
+        <f t="shared" si="8"/>
+        <v>528</v>
+      </c>
+      <c r="B531" s="76"/>
+      <c r="C531" s="77"/>
+      <c r="D531" s="76"/>
+      <c r="E531" s="61"/>
+      <c r="F531" s="78"/>
+      <c r="G531" s="61"/>
+      <c r="H531" s="61"/>
+      <c r="I531" s="61"/>
+      <c r="J531" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K531" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L531" s="61"/>
+      <c r="M531" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N531" s="61"/>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A532" s="53">
+        <f t="shared" si="8"/>
+        <v>529</v>
+      </c>
+      <c r="B532" s="76"/>
+      <c r="C532" s="77"/>
+      <c r="D532" s="76"/>
+      <c r="E532" s="61"/>
+      <c r="F532" s="78"/>
+      <c r="G532" s="61"/>
+      <c r="H532" s="61"/>
+      <c r="I532" s="61"/>
+      <c r="J532" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K532" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L532" s="61"/>
+      <c r="M532" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N532" s="61"/>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A533" s="53">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+      <c r="B533" s="76"/>
+      <c r="C533" s="77"/>
+      <c r="D533" s="76"/>
+      <c r="E533" s="61"/>
+      <c r="F533" s="78"/>
+      <c r="G533" s="61"/>
+      <c r="H533" s="61"/>
+      <c r="I533" s="61"/>
+      <c r="J533" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K533" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L533" s="61"/>
+      <c r="M533" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N533" s="61"/>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A534" s="53">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
+      <c r="B534" s="76"/>
+      <c r="C534" s="77"/>
+      <c r="D534" s="76"/>
+      <c r="E534" s="61"/>
+      <c r="F534" s="78"/>
+      <c r="G534" s="61"/>
+      <c r="H534" s="61"/>
+      <c r="I534" s="61"/>
+      <c r="J534" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K534" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L534" s="61"/>
+      <c r="M534" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N534" s="61"/>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A535" s="53">
+        <f t="shared" si="8"/>
+        <v>532</v>
+      </c>
+      <c r="B535" s="76"/>
+      <c r="C535" s="77"/>
+      <c r="D535" s="76"/>
+      <c r="E535" s="61"/>
+      <c r="F535" s="78"/>
+      <c r="G535" s="61"/>
+      <c r="H535" s="61"/>
+      <c r="I535" s="61"/>
+      <c r="J535" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K535" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L535" s="61"/>
+      <c r="M535" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N535" s="61"/>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A536" s="53">
+        <f t="shared" si="8"/>
+        <v>533</v>
+      </c>
+      <c r="B536" s="76"/>
+      <c r="C536" s="77"/>
+      <c r="D536" s="76"/>
+      <c r="E536" s="61"/>
+      <c r="F536" s="78"/>
+      <c r="G536" s="61"/>
+      <c r="H536" s="61"/>
+      <c r="I536" s="61"/>
+      <c r="J536" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K536" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L536" s="61"/>
+      <c r="M536" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N536" s="61"/>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A537" s="53">
+        <f t="shared" si="8"/>
+        <v>534</v>
+      </c>
+      <c r="B537" s="76"/>
+      <c r="C537" s="77"/>
+      <c r="D537" s="76"/>
+      <c r="E537" s="61"/>
+      <c r="F537" s="78"/>
+      <c r="G537" s="61"/>
+      <c r="H537" s="61"/>
+      <c r="I537" s="61"/>
+      <c r="J537" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K537" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L537" s="61"/>
+      <c r="M537" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N537" s="61"/>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A538" s="53">
+        <f t="shared" si="8"/>
+        <v>535</v>
+      </c>
+      <c r="B538" s="76"/>
+      <c r="C538" s="77"/>
+      <c r="D538" s="76"/>
+      <c r="E538" s="61"/>
+      <c r="F538" s="78"/>
+      <c r="G538" s="61"/>
+      <c r="H538" s="61"/>
+      <c r="I538" s="61"/>
+      <c r="J538" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K538" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L538" s="61"/>
+      <c r="M538" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N538" s="61"/>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A539" s="53">
+        <f t="shared" si="8"/>
+        <v>536</v>
+      </c>
+      <c r="B539" s="76"/>
+      <c r="C539" s="77"/>
+      <c r="D539" s="76"/>
+      <c r="E539" s="61"/>
+      <c r="F539" s="78"/>
+      <c r="G539" s="61"/>
+      <c r="H539" s="61"/>
+      <c r="I539" s="61"/>
+      <c r="J539" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K539" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L539" s="61"/>
+      <c r="M539" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N539" s="61"/>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A540" s="53">
+        <f t="shared" si="8"/>
+        <v>537</v>
+      </c>
+      <c r="B540" s="76"/>
+      <c r="C540" s="77"/>
+      <c r="D540" s="76"/>
+      <c r="E540" s="61"/>
+      <c r="F540" s="78"/>
+      <c r="G540" s="61"/>
+      <c r="H540" s="61"/>
+      <c r="I540" s="61"/>
+      <c r="J540" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K540" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L540" s="61"/>
+      <c r="M540" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N540" s="61"/>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A541" s="53">
+        <f t="shared" si="8"/>
+        <v>538</v>
+      </c>
+      <c r="B541" s="76"/>
+      <c r="C541" s="77"/>
+      <c r="D541" s="76"/>
+      <c r="E541" s="61"/>
+      <c r="F541" s="78"/>
+      <c r="G541" s="61"/>
+      <c r="H541" s="61"/>
+      <c r="I541" s="61"/>
+      <c r="J541" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K541" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L541" s="61"/>
+      <c r="M541" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N541" s="61"/>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A542" s="53">
+        <f t="shared" si="8"/>
+        <v>539</v>
+      </c>
+      <c r="B542" s="76"/>
+      <c r="C542" s="77"/>
+      <c r="D542" s="76"/>
+      <c r="E542" s="61"/>
+      <c r="F542" s="78"/>
+      <c r="G542" s="61"/>
+      <c r="H542" s="61"/>
+      <c r="I542" s="61"/>
+      <c r="J542" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K542" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L542" s="61"/>
+      <c r="M542" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N542" s="61"/>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A543" s="53">
+        <f t="shared" si="8"/>
+        <v>540</v>
+      </c>
+      <c r="B543" s="76"/>
+      <c r="C543" s="77"/>
+      <c r="D543" s="76"/>
+      <c r="E543" s="61"/>
+      <c r="F543" s="78"/>
+      <c r="G543" s="61"/>
+      <c r="H543" s="61"/>
+      <c r="I543" s="61"/>
+      <c r="J543" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K543" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L543" s="61"/>
+      <c r="M543" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N543" s="61"/>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A544" s="53">
+        <f t="shared" si="8"/>
+        <v>541</v>
+      </c>
+      <c r="B544" s="76"/>
+      <c r="C544" s="77"/>
+      <c r="D544" s="76"/>
+      <c r="E544" s="61"/>
+      <c r="F544" s="78"/>
+      <c r="G544" s="61"/>
+      <c r="H544" s="61"/>
+      <c r="I544" s="61"/>
+      <c r="J544" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K544" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L544" s="61"/>
+      <c r="M544" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N544" s="61"/>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A545" s="53">
+        <f t="shared" si="8"/>
+        <v>542</v>
+      </c>
+      <c r="B545" s="76"/>
+      <c r="C545" s="77"/>
+      <c r="D545" s="76"/>
+      <c r="E545" s="61"/>
+      <c r="F545" s="78"/>
+      <c r="G545" s="61"/>
+      <c r="H545" s="61"/>
+      <c r="I545" s="61"/>
+      <c r="J545" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K545" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L545" s="61"/>
+      <c r="M545" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N545" s="61"/>
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A546" s="53">
+        <f t="shared" si="8"/>
+        <v>543</v>
+      </c>
+      <c r="B546" s="76"/>
+      <c r="C546" s="77"/>
+      <c r="D546" s="76"/>
+      <c r="E546" s="61"/>
+      <c r="F546" s="78"/>
+      <c r="G546" s="61"/>
+      <c r="H546" s="61"/>
+      <c r="I546" s="61"/>
+      <c r="J546" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K546" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L546" s="61"/>
+      <c r="M546" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N546" s="61"/>
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A547" s="53">
+        <f t="shared" si="8"/>
+        <v>544</v>
+      </c>
+      <c r="B547" s="76"/>
+      <c r="C547" s="77"/>
+      <c r="D547" s="76"/>
+      <c r="E547" s="61"/>
+      <c r="F547" s="78"/>
+      <c r="G547" s="61"/>
+      <c r="H547" s="61"/>
+      <c r="I547" s="61"/>
+      <c r="J547" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K547" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L547" s="61"/>
+      <c r="M547" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N547" s="61"/>
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A548" s="53">
+        <f t="shared" si="8"/>
+        <v>545</v>
+      </c>
+      <c r="B548" s="76"/>
+      <c r="C548" s="77"/>
+      <c r="D548" s="76"/>
+      <c r="E548" s="61"/>
+      <c r="F548" s="78"/>
+      <c r="G548" s="61"/>
+      <c r="H548" s="61"/>
+      <c r="I548" s="61"/>
+      <c r="J548" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K548" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L548" s="61"/>
+      <c r="M548" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N548" s="61"/>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A549" s="53">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="B549" s="76"/>
+      <c r="C549" s="77"/>
+      <c r="D549" s="76"/>
+      <c r="E549" s="61"/>
+      <c r="F549" s="78"/>
+      <c r="G549" s="61"/>
+      <c r="H549" s="61"/>
+      <c r="I549" s="61"/>
+      <c r="J549" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K549" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L549" s="61"/>
+      <c r="M549" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N549" s="61"/>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A550" s="53">
+        <f t="shared" si="8"/>
+        <v>547</v>
+      </c>
+      <c r="B550" s="76"/>
+      <c r="C550" s="77"/>
+      <c r="D550" s="76"/>
+      <c r="E550" s="61"/>
+      <c r="F550" s="78"/>
+      <c r="G550" s="61"/>
+      <c r="H550" s="61"/>
+      <c r="I550" s="61"/>
+      <c r="J550" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K550" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L550" s="61"/>
+      <c r="M550" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N550" s="61"/>
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A551" s="53">
+        <f t="shared" si="8"/>
+        <v>548</v>
+      </c>
+      <c r="B551" s="76"/>
+      <c r="C551" s="77"/>
+      <c r="D551" s="76"/>
+      <c r="E551" s="61"/>
+      <c r="F551" s="78"/>
+      <c r="G551" s="61"/>
+      <c r="H551" s="61"/>
+      <c r="I551" s="61"/>
+      <c r="J551" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K551" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L551" s="61"/>
+      <c r="M551" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N551" s="61"/>
+    </row>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A552" s="53">
+        <f t="shared" si="8"/>
+        <v>549</v>
+      </c>
+      <c r="B552" s="76"/>
+      <c r="C552" s="77"/>
+      <c r="D552" s="76"/>
+      <c r="E552" s="61"/>
+      <c r="F552" s="78"/>
+      <c r="G552" s="61"/>
+      <c r="H552" s="61"/>
+      <c r="I552" s="61"/>
+      <c r="J552" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K552" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L552" s="61"/>
+      <c r="M552" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N552" s="61"/>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A553" s="53">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="B553" s="76"/>
+      <c r="C553" s="77"/>
+      <c r="D553" s="76"/>
+      <c r="E553" s="61"/>
+      <c r="F553" s="78"/>
+      <c r="G553" s="61"/>
+      <c r="H553" s="61"/>
+      <c r="I553" s="61"/>
+      <c r="J553" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K553" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L553" s="61"/>
+      <c r="M553" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N553" s="61"/>
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A554" s="53">
+        <f t="shared" si="8"/>
+        <v>551</v>
+      </c>
+      <c r="B554" s="76"/>
+      <c r="C554" s="77"/>
+      <c r="D554" s="76"/>
+      <c r="E554" s="61"/>
+      <c r="F554" s="78"/>
+      <c r="G554" s="61"/>
+      <c r="H554" s="61"/>
+      <c r="I554" s="61"/>
+      <c r="J554" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K554" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L554" s="61"/>
+      <c r="M554" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N554" s="61"/>
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A555" s="53">
+        <f t="shared" si="8"/>
+        <v>552</v>
+      </c>
+      <c r="B555" s="76"/>
+      <c r="C555" s="77"/>
+      <c r="D555" s="76"/>
+      <c r="E555" s="61"/>
+      <c r="F555" s="78"/>
+      <c r="G555" s="61"/>
+      <c r="H555" s="61"/>
+      <c r="I555" s="61"/>
+      <c r="J555" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K555" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L555" s="61"/>
+      <c r="M555" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N555" s="61"/>
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A556" s="53">
+        <f t="shared" si="8"/>
+        <v>553</v>
+      </c>
+      <c r="B556" s="76"/>
+      <c r="C556" s="77"/>
+      <c r="D556" s="76"/>
+      <c r="E556" s="61"/>
+      <c r="F556" s="78"/>
+      <c r="G556" s="61"/>
+      <c r="H556" s="61"/>
+      <c r="I556" s="61"/>
+      <c r="J556" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K556" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L556" s="61"/>
+      <c r="M556" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N556" s="61"/>
+    </row>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A557" s="53">
+        <f t="shared" si="8"/>
+        <v>554</v>
+      </c>
+      <c r="B557" s="76"/>
+      <c r="C557" s="77"/>
+      <c r="D557" s="76"/>
+      <c r="E557" s="61"/>
+      <c r="F557" s="78"/>
+      <c r="G557" s="61"/>
+      <c r="H557" s="61"/>
+      <c r="I557" s="61"/>
+      <c r="J557" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K557" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L557" s="61"/>
+      <c r="M557" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N557" s="61"/>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A558" s="53">
+        <f t="shared" si="8"/>
+        <v>555</v>
+      </c>
+      <c r="B558" s="76"/>
+      <c r="C558" s="77"/>
+      <c r="D558" s="76"/>
+      <c r="E558" s="61"/>
+      <c r="F558" s="78"/>
+      <c r="G558" s="61"/>
+      <c r="H558" s="61"/>
+      <c r="I558" s="61"/>
+      <c r="J558" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K558" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L558" s="61"/>
+      <c r="M558" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N558" s="61"/>
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A559" s="53">
+        <f t="shared" si="8"/>
+        <v>556</v>
+      </c>
+      <c r="B559" s="76"/>
+      <c r="C559" s="77"/>
+      <c r="D559" s="76"/>
+      <c r="E559" s="61"/>
+      <c r="F559" s="78"/>
+      <c r="G559" s="61"/>
+      <c r="H559" s="61"/>
+      <c r="I559" s="61"/>
+      <c r="J559" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K559" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L559" s="61"/>
+      <c r="M559" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N559" s="61"/>
+    </row>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A560" s="53">
+        <f t="shared" si="8"/>
+        <v>557</v>
+      </c>
+      <c r="B560" s="76"/>
+      <c r="C560" s="77"/>
+      <c r="D560" s="76"/>
+      <c r="E560" s="61"/>
+      <c r="F560" s="78"/>
+      <c r="G560" s="61"/>
+      <c r="H560" s="61"/>
+      <c r="I560" s="61"/>
+      <c r="J560" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K560" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L560" s="61"/>
+      <c r="M560" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N560" s="61"/>
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A561" s="53">
+        <f t="shared" si="8"/>
+        <v>558</v>
+      </c>
+      <c r="B561" s="76"/>
+      <c r="C561" s="77"/>
+      <c r="D561" s="76"/>
+      <c r="E561" s="61"/>
+      <c r="F561" s="78"/>
+      <c r="G561" s="61"/>
+      <c r="H561" s="61"/>
+      <c r="I561" s="61"/>
+      <c r="J561" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K561" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L561" s="61"/>
+      <c r="M561" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N561" s="61"/>
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A562" s="53">
+        <f t="shared" si="8"/>
+        <v>559</v>
+      </c>
+      <c r="B562" s="76"/>
+      <c r="C562" s="77"/>
+      <c r="D562" s="76"/>
+      <c r="E562" s="61"/>
+      <c r="F562" s="78"/>
+      <c r="G562" s="61"/>
+      <c r="H562" s="61"/>
+      <c r="I562" s="61"/>
+      <c r="J562" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K562" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L562" s="61"/>
+      <c r="M562" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N562" s="61"/>
+    </row>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A563" s="53">
+        <f t="shared" si="8"/>
+        <v>560</v>
+      </c>
+      <c r="B563" s="76"/>
+      <c r="C563" s="77"/>
+      <c r="D563" s="76"/>
+      <c r="E563" s="61"/>
+      <c r="F563" s="78"/>
+      <c r="G563" s="61"/>
+      <c r="H563" s="61"/>
+      <c r="I563" s="61"/>
+      <c r="J563" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K563" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L563" s="61"/>
+      <c r="M563" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N563" s="61"/>
+    </row>
+    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A564" s="53">
+        <f t="shared" si="8"/>
+        <v>561</v>
+      </c>
+      <c r="B564" s="76"/>
+      <c r="C564" s="77"/>
+      <c r="D564" s="76"/>
+      <c r="E564" s="61"/>
+      <c r="F564" s="78"/>
+      <c r="G564" s="61"/>
+      <c r="H564" s="61"/>
+      <c r="I564" s="61"/>
+      <c r="J564" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K564" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L564" s="61"/>
+      <c r="M564" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N564" s="61"/>
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A565" s="53">
+        <f t="shared" si="8"/>
+        <v>562</v>
+      </c>
+      <c r="B565" s="76"/>
+      <c r="C565" s="77"/>
+      <c r="D565" s="76"/>
+      <c r="E565" s="61"/>
+      <c r="F565" s="78"/>
+      <c r="G565" s="61"/>
+      <c r="H565" s="61"/>
+      <c r="I565" s="61"/>
+      <c r="J565" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K565" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L565" s="61"/>
+      <c r="M565" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N565" s="61"/>
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A566" s="53">
+        <f t="shared" si="8"/>
+        <v>563</v>
+      </c>
+      <c r="B566" s="76"/>
+      <c r="C566" s="77"/>
+      <c r="D566" s="76"/>
+      <c r="E566" s="61"/>
+      <c r="F566" s="78"/>
+      <c r="G566" s="61"/>
+      <c r="H566" s="61"/>
+      <c r="I566" s="61"/>
+      <c r="J566" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K566" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L566" s="61"/>
+      <c r="M566" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N566" s="61"/>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A567" s="53">
+        <f t="shared" si="8"/>
+        <v>564</v>
+      </c>
+      <c r="B567" s="76"/>
+      <c r="C567" s="77"/>
+      <c r="D567" s="76"/>
+      <c r="E567" s="61"/>
+      <c r="F567" s="78"/>
+      <c r="G567" s="61"/>
+      <c r="H567" s="61"/>
+      <c r="I567" s="61"/>
+      <c r="J567" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K567" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L567" s="61"/>
+      <c r="M567" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N567" s="61"/>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A568" s="53">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="B568" s="76"/>
+      <c r="C568" s="77"/>
+      <c r="D568" s="76"/>
+      <c r="E568" s="61"/>
+      <c r="F568" s="78"/>
+      <c r="G568" s="61"/>
+      <c r="H568" s="61"/>
+      <c r="I568" s="61"/>
+      <c r="J568" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K568" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L568" s="61"/>
+      <c r="M568" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N568" s="61"/>
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A569" s="53">
+        <f t="shared" si="8"/>
+        <v>566</v>
+      </c>
+      <c r="B569" s="76"/>
+      <c r="C569" s="77"/>
+      <c r="D569" s="76"/>
+      <c r="E569" s="61"/>
+      <c r="F569" s="78"/>
+      <c r="G569" s="61"/>
+      <c r="H569" s="61"/>
+      <c r="I569" s="61"/>
+      <c r="J569" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K569" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L569" s="61"/>
+      <c r="M569" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N569" s="61"/>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A570" s="53">
+        <f t="shared" si="8"/>
+        <v>567</v>
+      </c>
+      <c r="B570" s="76"/>
+      <c r="C570" s="77"/>
+      <c r="D570" s="76"/>
+      <c r="E570" s="61"/>
+      <c r="F570" s="78"/>
+      <c r="G570" s="61"/>
+      <c r="H570" s="61"/>
+      <c r="I570" s="61"/>
+      <c r="J570" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K570" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L570" s="61"/>
+      <c r="M570" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N570" s="61"/>
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A571" s="53">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="B571" s="76"/>
+      <c r="C571" s="77"/>
+      <c r="D571" s="76"/>
+      <c r="E571" s="61"/>
+      <c r="F571" s="78"/>
+      <c r="G571" s="61"/>
+      <c r="H571" s="61"/>
+      <c r="I571" s="61"/>
+      <c r="J571" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K571" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L571" s="61"/>
+      <c r="M571" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N571" s="61"/>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A572" s="53">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+      <c r="B572" s="76"/>
+      <c r="C572" s="77"/>
+      <c r="D572" s="76"/>
+      <c r="E572" s="61"/>
+      <c r="F572" s="78"/>
+      <c r="G572" s="61"/>
+      <c r="H572" s="61"/>
+      <c r="I572" s="61"/>
+      <c r="J572" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K572" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L572" s="61"/>
+      <c r="M572" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N572" s="61"/>
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A573" s="53">
+        <f t="shared" si="8"/>
+        <v>570</v>
+      </c>
+      <c r="B573" s="76"/>
+      <c r="C573" s="77"/>
+      <c r="D573" s="76"/>
+      <c r="E573" s="61"/>
+      <c r="F573" s="78"/>
+      <c r="G573" s="61"/>
+      <c r="H573" s="61"/>
+      <c r="I573" s="61"/>
+      <c r="J573" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K573" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L573" s="61"/>
+      <c r="M573" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N573" s="61"/>
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A574" s="53">
+        <f t="shared" si="8"/>
+        <v>571</v>
+      </c>
+      <c r="B574" s="76"/>
+      <c r="C574" s="77"/>
+      <c r="D574" s="76"/>
+      <c r="E574" s="61"/>
+      <c r="F574" s="78"/>
+      <c r="G574" s="61"/>
+      <c r="H574" s="61"/>
+      <c r="I574" s="61"/>
+      <c r="J574" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K574" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L574" s="61"/>
+      <c r="M574" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N574" s="61"/>
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A575" s="53">
+        <f t="shared" si="8"/>
+        <v>572</v>
+      </c>
+      <c r="B575" s="76"/>
+      <c r="C575" s="77"/>
+      <c r="D575" s="76"/>
+      <c r="E575" s="61"/>
+      <c r="F575" s="78"/>
+      <c r="G575" s="61"/>
+      <c r="H575" s="61"/>
+      <c r="I575" s="61"/>
+      <c r="J575" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K575" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L575" s="61"/>
+      <c r="M575" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N575" s="61"/>
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A576" s="53">
+        <f t="shared" si="8"/>
+        <v>573</v>
+      </c>
+      <c r="B576" s="76"/>
+      <c r="C576" s="77"/>
+      <c r="D576" s="76"/>
+      <c r="E576" s="61"/>
+      <c r="F576" s="78"/>
+      <c r="G576" s="61"/>
+      <c r="H576" s="61"/>
+      <c r="I576" s="61"/>
+      <c r="J576" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K576" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L576" s="61"/>
+      <c r="M576" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N576" s="61"/>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A577" s="53">
+        <f t="shared" si="8"/>
+        <v>574</v>
+      </c>
+      <c r="B577" s="76"/>
+      <c r="C577" s="77"/>
+      <c r="D577" s="76"/>
+      <c r="E577" s="61"/>
+      <c r="F577" s="78"/>
+      <c r="G577" s="61"/>
+      <c r="H577" s="61"/>
+      <c r="I577" s="61"/>
+      <c r="J577" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K577" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L577" s="61"/>
+      <c r="M577" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N577" s="61"/>
+    </row>
+    <row r="578" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A578" s="53">
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="B578" s="76"/>
+      <c r="C578" s="77"/>
+      <c r="D578" s="76"/>
+      <c r="E578" s="61"/>
+      <c r="F578" s="78"/>
+      <c r="G578" s="61"/>
+      <c r="H578" s="61"/>
+      <c r="I578" s="61"/>
+      <c r="J578" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K578" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L578" s="61"/>
+      <c r="M578" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N578" s="61"/>
+    </row>
+    <row r="579" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A579" s="53">
+        <f t="shared" ref="A579:A618" si="9">A578+1</f>
+        <v>576</v>
+      </c>
+      <c r="B579" s="76"/>
+      <c r="C579" s="77"/>
+      <c r="D579" s="76"/>
+      <c r="E579" s="61"/>
+      <c r="F579" s="78"/>
+      <c r="G579" s="61"/>
+      <c r="H579" s="61"/>
+      <c r="I579" s="61"/>
+      <c r="J579" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K579" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L579" s="61"/>
+      <c r="M579" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N579" s="61"/>
+    </row>
+    <row r="580" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A580" s="53">
+        <f t="shared" si="9"/>
+        <v>577</v>
+      </c>
+      <c r="B580" s="76"/>
+      <c r="C580" s="77"/>
+      <c r="D580" s="76"/>
+      <c r="E580" s="61"/>
+      <c r="F580" s="78"/>
+      <c r="G580" s="61"/>
+      <c r="H580" s="61"/>
+      <c r="I580" s="61"/>
+      <c r="J580" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K580" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L580" s="61"/>
+      <c r="M580" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N580" s="61"/>
+    </row>
+    <row r="581" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A581" s="53">
+        <f t="shared" si="9"/>
+        <v>578</v>
+      </c>
+      <c r="B581" s="76"/>
+      <c r="C581" s="77"/>
+      <c r="D581" s="76"/>
+      <c r="E581" s="61"/>
+      <c r="F581" s="78"/>
+      <c r="G581" s="61"/>
+      <c r="H581" s="61"/>
+      <c r="I581" s="61"/>
+      <c r="J581" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K581" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L581" s="61"/>
+      <c r="M581" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N581" s="61"/>
+    </row>
+    <row r="582" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A582" s="53">
+        <f t="shared" si="9"/>
+        <v>579</v>
+      </c>
+      <c r="B582" s="76"/>
+      <c r="C582" s="77"/>
+      <c r="D582" s="76"/>
+      <c r="E582" s="61"/>
+      <c r="F582" s="78"/>
+      <c r="G582" s="61"/>
+      <c r="H582" s="61"/>
+      <c r="I582" s="61"/>
+      <c r="J582" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K582" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L582" s="61"/>
+      <c r="M582" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N582" s="61"/>
+    </row>
+    <row r="583" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A583" s="53">
+        <f t="shared" si="9"/>
+        <v>580</v>
+      </c>
+      <c r="B583" s="76"/>
+      <c r="C583" s="77"/>
+      <c r="D583" s="76"/>
+      <c r="E583" s="61"/>
+      <c r="F583" s="78"/>
+      <c r="G583" s="61"/>
+      <c r="H583" s="61"/>
+      <c r="I583" s="61"/>
+      <c r="J583" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K583" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L583" s="61"/>
+      <c r="M583" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N583" s="61"/>
+    </row>
+    <row r="584" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A584" s="53">
+        <f t="shared" si="9"/>
+        <v>581</v>
+      </c>
+      <c r="B584" s="76"/>
+      <c r="C584" s="77"/>
+      <c r="D584" s="76"/>
+      <c r="E584" s="61"/>
+      <c r="F584" s="78"/>
+      <c r="G584" s="61"/>
+      <c r="H584" s="61"/>
+      <c r="I584" s="61"/>
+      <c r="J584" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K584" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L584" s="61"/>
+      <c r="M584" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N584" s="61"/>
+    </row>
+    <row r="585" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A585" s="53">
+        <f t="shared" si="9"/>
+        <v>582</v>
+      </c>
+      <c r="B585" s="76"/>
+      <c r="C585" s="77"/>
+      <c r="D585" s="76"/>
+      <c r="E585" s="61"/>
+      <c r="F585" s="78"/>
+      <c r="G585" s="61"/>
+      <c r="H585" s="61"/>
+      <c r="I585" s="61"/>
+      <c r="J585" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K585" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L585" s="61"/>
+      <c r="M585" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N585" s="61"/>
+    </row>
+    <row r="586" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A586" s="53">
+        <f t="shared" si="9"/>
+        <v>583</v>
+      </c>
+      <c r="B586" s="76"/>
+      <c r="C586" s="77"/>
+      <c r="D586" s="76"/>
+      <c r="E586" s="61"/>
+      <c r="F586" s="78"/>
+      <c r="G586" s="61"/>
+      <c r="H586" s="61"/>
+      <c r="I586" s="61"/>
+      <c r="J586" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K586" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L586" s="61"/>
+      <c r="M586" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N586" s="61"/>
+    </row>
+    <row r="587" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A587" s="53">
+        <f t="shared" si="9"/>
+        <v>584</v>
+      </c>
+      <c r="B587" s="76"/>
+      <c r="C587" s="77"/>
+      <c r="D587" s="76"/>
+      <c r="E587" s="61"/>
+      <c r="F587" s="78"/>
+      <c r="G587" s="61"/>
+      <c r="H587" s="61"/>
+      <c r="I587" s="61"/>
+      <c r="J587" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K587" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L587" s="61"/>
+      <c r="M587" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N587" s="61"/>
+    </row>
+    <row r="588" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A588" s="53">
+        <f t="shared" si="9"/>
+        <v>585</v>
+      </c>
+      <c r="B588" s="76"/>
+      <c r="C588" s="77"/>
+      <c r="D588" s="76"/>
+      <c r="E588" s="61"/>
+      <c r="F588" s="78"/>
+      <c r="G588" s="61"/>
+      <c r="H588" s="61"/>
+      <c r="I588" s="61"/>
+      <c r="J588" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K588" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L588" s="61"/>
+      <c r="M588" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N588" s="61"/>
+    </row>
+    <row r="589" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A589" s="53">
+        <f t="shared" si="9"/>
+        <v>586</v>
+      </c>
+      <c r="B589" s="76"/>
+      <c r="C589" s="77"/>
+      <c r="D589" s="76"/>
+      <c r="E589" s="61"/>
+      <c r="F589" s="78"/>
+      <c r="G589" s="61"/>
+      <c r="H589" s="61"/>
+      <c r="I589" s="61"/>
+      <c r="J589" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K589" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L589" s="61"/>
+      <c r="M589" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N589" s="61"/>
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A590" s="53">
+        <f t="shared" si="9"/>
+        <v>587</v>
+      </c>
+      <c r="B590" s="76"/>
+      <c r="C590" s="77"/>
+      <c r="D590" s="76"/>
+      <c r="E590" s="61"/>
+      <c r="F590" s="78"/>
+      <c r="G590" s="61"/>
+      <c r="H590" s="61"/>
+      <c r="I590" s="61"/>
+      <c r="J590" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K590" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L590" s="61"/>
+      <c r="M590" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N590" s="61"/>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A591" s="53">
+        <f t="shared" si="9"/>
+        <v>588</v>
+      </c>
+      <c r="B591" s="76"/>
+      <c r="C591" s="77"/>
+      <c r="D591" s="76"/>
+      <c r="E591" s="61"/>
+      <c r="F591" s="78"/>
+      <c r="G591" s="61"/>
+      <c r="H591" s="61"/>
+      <c r="I591" s="61"/>
+      <c r="J591" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K591" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L591" s="61"/>
+      <c r="M591" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N591" s="61"/>
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A592" s="53">
+        <f t="shared" si="9"/>
+        <v>589</v>
+      </c>
+      <c r="B592" s="76"/>
+      <c r="C592" s="77"/>
+      <c r="D592" s="76"/>
+      <c r="E592" s="61"/>
+      <c r="F592" s="78"/>
+      <c r="G592" s="61"/>
+      <c r="H592" s="61"/>
+      <c r="I592" s="61"/>
+      <c r="J592" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K592" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L592" s="61"/>
+      <c r="M592" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N592" s="61"/>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A593" s="53">
+        <f t="shared" si="9"/>
+        <v>590</v>
+      </c>
+      <c r="B593" s="76"/>
+      <c r="C593" s="77"/>
+      <c r="D593" s="76"/>
+      <c r="E593" s="61"/>
+      <c r="F593" s="78"/>
+      <c r="G593" s="61"/>
+      <c r="H593" s="61"/>
+      <c r="I593" s="61"/>
+      <c r="J593" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K593" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L593" s="61"/>
+      <c r="M593" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N593" s="61"/>
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A594" s="53">
+        <f t="shared" si="9"/>
+        <v>591</v>
+      </c>
+      <c r="B594" s="76"/>
+      <c r="C594" s="77"/>
+      <c r="D594" s="76"/>
+      <c r="E594" s="61"/>
+      <c r="F594" s="78"/>
+      <c r="G594" s="61"/>
+      <c r="H594" s="61"/>
+      <c r="I594" s="61"/>
+      <c r="J594" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K594" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L594" s="61"/>
+      <c r="M594" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N594" s="61"/>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A595" s="53">
+        <f t="shared" si="9"/>
+        <v>592</v>
+      </c>
+      <c r="B595" s="76"/>
+      <c r="C595" s="77"/>
+      <c r="D595" s="76"/>
+      <c r="E595" s="61"/>
+      <c r="F595" s="78"/>
+      <c r="G595" s="61"/>
+      <c r="H595" s="61"/>
+      <c r="I595" s="61"/>
+      <c r="J595" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K595" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L595" s="61"/>
+      <c r="M595" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N595" s="61"/>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A596" s="53">
+        <f t="shared" si="9"/>
+        <v>593</v>
+      </c>
+      <c r="B596" s="76"/>
+      <c r="C596" s="77"/>
+      <c r="D596" s="76"/>
+      <c r="E596" s="61"/>
+      <c r="F596" s="78"/>
+      <c r="G596" s="61"/>
+      <c r="H596" s="61"/>
+      <c r="I596" s="61"/>
+      <c r="J596" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K596" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L596" s="61"/>
+      <c r="M596" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N596" s="61"/>
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A597" s="53">
+        <f t="shared" si="9"/>
+        <v>594</v>
+      </c>
+      <c r="B597" s="76"/>
+      <c r="C597" s="77"/>
+      <c r="D597" s="76"/>
+      <c r="E597" s="61"/>
+      <c r="F597" s="78"/>
+      <c r="G597" s="61"/>
+      <c r="H597" s="61"/>
+      <c r="I597" s="61"/>
+      <c r="J597" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K597" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L597" s="61"/>
+      <c r="M597" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N597" s="61"/>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A598" s="53">
+        <f t="shared" si="9"/>
+        <v>595</v>
+      </c>
+      <c r="B598" s="76"/>
+      <c r="C598" s="77"/>
+      <c r="D598" s="76"/>
+      <c r="E598" s="61"/>
+      <c r="F598" s="78"/>
+      <c r="G598" s="61"/>
+      <c r="H598" s="61"/>
+      <c r="I598" s="61"/>
+      <c r="J598" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K598" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L598" s="61"/>
+      <c r="M598" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N598" s="61"/>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A599" s="53">
+        <f t="shared" si="9"/>
+        <v>596</v>
+      </c>
+      <c r="B599" s="76"/>
+      <c r="C599" s="77"/>
+      <c r="D599" s="76"/>
+      <c r="E599" s="61"/>
+      <c r="F599" s="78"/>
+      <c r="G599" s="61"/>
+      <c r="H599" s="61"/>
+      <c r="I599" s="61"/>
+      <c r="J599" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K599" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L599" s="61"/>
+      <c r="M599" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N599" s="61"/>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A600" s="53">
+        <f t="shared" si="9"/>
+        <v>597</v>
+      </c>
+      <c r="B600" s="76"/>
+      <c r="C600" s="77"/>
+      <c r="D600" s="76"/>
+      <c r="E600" s="61"/>
+      <c r="F600" s="78"/>
+      <c r="G600" s="61"/>
+      <c r="H600" s="61"/>
+      <c r="I600" s="61"/>
+      <c r="J600" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K600" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L600" s="61"/>
+      <c r="M600" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N600" s="61"/>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A601" s="53">
+        <f t="shared" si="9"/>
+        <v>598</v>
+      </c>
+      <c r="B601" s="76"/>
+      <c r="C601" s="77"/>
+      <c r="D601" s="76"/>
+      <c r="E601" s="61"/>
+      <c r="F601" s="78"/>
+      <c r="G601" s="61"/>
+      <c r="H601" s="61"/>
+      <c r="I601" s="61"/>
+      <c r="J601" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K601" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L601" s="61"/>
+      <c r="M601" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N601" s="61"/>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A602" s="53">
+        <f t="shared" si="9"/>
+        <v>599</v>
+      </c>
+      <c r="B602" s="76"/>
+      <c r="C602" s="77"/>
+      <c r="D602" s="76"/>
+      <c r="E602" s="61"/>
+      <c r="F602" s="78"/>
+      <c r="G602" s="61"/>
+      <c r="H602" s="61"/>
+      <c r="I602" s="61"/>
+      <c r="J602" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K602" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L602" s="61"/>
+      <c r="M602" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N602" s="61"/>
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A603" s="53">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="B603" s="76"/>
+      <c r="C603" s="77"/>
+      <c r="D603" s="76"/>
+      <c r="E603" s="61"/>
+      <c r="F603" s="78"/>
+      <c r="G603" s="61"/>
+      <c r="H603" s="61"/>
+      <c r="I603" s="61"/>
+      <c r="J603" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K603" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L603" s="61"/>
+      <c r="M603" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N603" s="61"/>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A604" s="53">
+        <f t="shared" si="9"/>
+        <v>601</v>
+      </c>
+      <c r="B604" s="76"/>
+      <c r="C604" s="77"/>
+      <c r="D604" s="76"/>
+      <c r="E604" s="61"/>
+      <c r="F604" s="78"/>
+      <c r="G604" s="61"/>
+      <c r="H604" s="61"/>
+      <c r="I604" s="61"/>
+      <c r="J604" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K604" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L604" s="61"/>
+      <c r="M604" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N604" s="61"/>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A605" s="53">
+        <f t="shared" si="9"/>
+        <v>602</v>
+      </c>
+      <c r="B605" s="76"/>
+      <c r="C605" s="77"/>
+      <c r="D605" s="76"/>
+      <c r="E605" s="61"/>
+      <c r="F605" s="78"/>
+      <c r="G605" s="61"/>
+      <c r="H605" s="61"/>
+      <c r="I605" s="61"/>
+      <c r="J605" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K605" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L605" s="61"/>
+      <c r="M605" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N605" s="61"/>
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A606" s="53">
+        <f t="shared" si="9"/>
+        <v>603</v>
+      </c>
+      <c r="B606" s="76"/>
+      <c r="C606" s="77"/>
+      <c r="D606" s="76"/>
+      <c r="E606" s="61"/>
+      <c r="F606" s="78"/>
+      <c r="G606" s="61"/>
+      <c r="H606" s="61"/>
+      <c r="I606" s="61"/>
+      <c r="J606" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K606" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L606" s="61"/>
+      <c r="M606" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N606" s="61"/>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A607" s="53">
+        <f t="shared" si="9"/>
+        <v>604</v>
+      </c>
+      <c r="B607" s="76"/>
+      <c r="C607" s="77"/>
+      <c r="D607" s="76"/>
+      <c r="E607" s="61"/>
+      <c r="F607" s="78"/>
+      <c r="G607" s="61"/>
+      <c r="H607" s="61"/>
+      <c r="I607" s="61"/>
+      <c r="J607" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K607" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L607" s="61"/>
+      <c r="M607" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N607" s="61"/>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A608" s="53">
+        <f t="shared" si="9"/>
+        <v>605</v>
+      </c>
+      <c r="B608" s="76"/>
+      <c r="C608" s="77"/>
+      <c r="D608" s="76"/>
+      <c r="E608" s="61"/>
+      <c r="F608" s="78"/>
+      <c r="G608" s="61"/>
+      <c r="H608" s="61"/>
+      <c r="I608" s="61"/>
+      <c r="J608" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K608" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L608" s="61"/>
+      <c r="M608" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N608" s="61"/>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A609" s="53">
+        <f t="shared" si="9"/>
+        <v>606</v>
+      </c>
+      <c r="B609" s="76"/>
+      <c r="C609" s="77"/>
+      <c r="D609" s="76"/>
+      <c r="E609" s="61"/>
+      <c r="F609" s="78"/>
+      <c r="G609" s="61"/>
+      <c r="H609" s="61"/>
+      <c r="I609" s="61"/>
+      <c r="J609" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K609" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L609" s="61"/>
+      <c r="M609" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N609" s="61"/>
+    </row>
+    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A610" s="53">
+        <f t="shared" si="9"/>
+        <v>607</v>
+      </c>
+      <c r="B610" s="76"/>
+      <c r="C610" s="77"/>
+      <c r="D610" s="76"/>
+      <c r="E610" s="61"/>
+      <c r="F610" s="78"/>
+      <c r="G610" s="61"/>
+      <c r="H610" s="61"/>
+      <c r="I610" s="61"/>
+      <c r="J610" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K610" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L610" s="61"/>
+      <c r="M610" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N610" s="61"/>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A611" s="53">
+        <f t="shared" si="9"/>
+        <v>608</v>
+      </c>
+      <c r="B611" s="76"/>
+      <c r="C611" s="77"/>
+      <c r="D611" s="76"/>
+      <c r="E611" s="61"/>
+      <c r="F611" s="78"/>
+      <c r="G611" s="61"/>
+      <c r="H611" s="61"/>
+      <c r="I611" s="61"/>
+      <c r="J611" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K611" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L611" s="61"/>
+      <c r="M611" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N611" s="61"/>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A612" s="53">
+        <f t="shared" si="9"/>
+        <v>609</v>
+      </c>
+      <c r="B612" s="76"/>
+      <c r="C612" s="77"/>
+      <c r="D612" s="76"/>
+      <c r="E612" s="61"/>
+      <c r="F612" s="78"/>
+      <c r="G612" s="61"/>
+      <c r="H612" s="61"/>
+      <c r="I612" s="61"/>
+      <c r="J612" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K612" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L612" s="61"/>
+      <c r="M612" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N612" s="61"/>
+    </row>
+    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A613" s="53">
+        <f t="shared" si="9"/>
+        <v>610</v>
+      </c>
+      <c r="B613" s="76"/>
+      <c r="C613" s="77"/>
+      <c r="D613" s="76"/>
+      <c r="E613" s="61"/>
+      <c r="F613" s="78"/>
+      <c r="G613" s="61"/>
+      <c r="H613" s="61"/>
+      <c r="I613" s="61"/>
+      <c r="J613" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K613" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L613" s="61"/>
+      <c r="M613" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N613" s="61"/>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A614" s="53">
+        <f t="shared" si="9"/>
+        <v>611</v>
+      </c>
+      <c r="B614" s="76"/>
+      <c r="C614" s="77"/>
+      <c r="D614" s="76"/>
+      <c r="E614" s="61"/>
+      <c r="F614" s="78"/>
+      <c r="G614" s="61"/>
+      <c r="H614" s="61"/>
+      <c r="I614" s="61"/>
+      <c r="J614" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K614" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L614" s="61"/>
+      <c r="M614" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N614" s="61"/>
+    </row>
+    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A615" s="53">
+        <f t="shared" si="9"/>
+        <v>612</v>
+      </c>
+      <c r="B615" s="76"/>
+      <c r="C615" s="77"/>
+      <c r="D615" s="76"/>
+      <c r="E615" s="61"/>
+      <c r="F615" s="78"/>
+      <c r="G615" s="61"/>
+      <c r="H615" s="61"/>
+      <c r="I615" s="61"/>
+      <c r="J615" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K615" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L615" s="61"/>
+      <c r="M615" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N615" s="61"/>
+    </row>
+    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A616" s="53">
+        <f t="shared" si="9"/>
+        <v>613</v>
+      </c>
+      <c r="B616" s="76"/>
+      <c r="C616" s="77"/>
+      <c r="D616" s="76"/>
+      <c r="E616" s="61"/>
+      <c r="F616" s="78"/>
+      <c r="G616" s="61"/>
+      <c r="H616" s="61"/>
+      <c r="I616" s="61"/>
+      <c r="J616" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K616" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L616" s="61"/>
+      <c r="M616" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N616" s="61"/>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A617" s="53">
+        <f t="shared" si="9"/>
+        <v>614</v>
+      </c>
+      <c r="B617" s="76"/>
+      <c r="C617" s="77"/>
+      <c r="D617" s="76"/>
+      <c r="E617" s="61"/>
+      <c r="F617" s="78"/>
+      <c r="G617" s="61"/>
+      <c r="H617" s="61"/>
+      <c r="I617" s="61"/>
+      <c r="J617" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K617" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L617" s="61"/>
+      <c r="M617" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N617" s="61"/>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A618" s="53">
+        <f t="shared" si="9"/>
+        <v>615</v>
+      </c>
+      <c r="B618" s="76"/>
+      <c r="C618" s="77"/>
+      <c r="D618" s="76"/>
+      <c r="E618" s="61"/>
+      <c r="F618" s="78"/>
+      <c r="G618" s="61"/>
+      <c r="H618" s="61"/>
+      <c r="I618" s="61"/>
+      <c r="J618" s="61">
+        <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
+        <v>0</v>
+      </c>
+      <c r="K618" s="61">
+        <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
+        <v>0</v>
+      </c>
+      <c r="L618" s="61"/>
+      <c r="M618" s="61">
+        <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
+        <v>0</v>
+      </c>
+      <c r="N618" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/محلي.xlsx
+++ b/محلي.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="848"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="848" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="كل العملاء" sheetId="6" r:id="rId1"/>
-    <sheet name="سيد ياسين" sheetId="5" r:id="rId2"/>
-    <sheet name="فرزة" sheetId="9" r:id="rId3"/>
-    <sheet name="محمدصابر" sheetId="1" r:id="rId4"/>
-    <sheet name="حامد بريد" sheetId="8" r:id="rId5"/>
-    <sheet name="هاني شتا" sheetId="7" r:id="rId6"/>
-    <sheet name="نسخة اولية" sheetId="2" r:id="rId7"/>
+    <sheet name="غسان جمعة" sheetId="10" r:id="rId2"/>
+    <sheet name="سيد ياسين" sheetId="5" r:id="rId3"/>
+    <sheet name="فرزة" sheetId="9" r:id="rId4"/>
+    <sheet name="محمدصابر" sheetId="1" r:id="rId5"/>
+    <sheet name="حامد بريد" sheetId="8" r:id="rId6"/>
+    <sheet name="هاني شتا" sheetId="7" r:id="rId7"/>
+    <sheet name="نسخة اولية" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="146">
   <si>
     <t>حساب السيد / محمد صابر</t>
   </si>
@@ -486,6 +487,12 @@
   </si>
   <si>
     <t>يقال انها مكررة في ايصال 346</t>
+  </si>
+  <si>
+    <t>غسان جمعة</t>
+  </si>
+  <si>
+    <t>تمت المراجعة</t>
   </si>
 </sst>
 </file>
@@ -925,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1129,6 +1136,15 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,20 +1157,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="56">
     <dxf>
       <font>
         <b val="0"/>
@@ -1379,9 +1390,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1389,6 +1397,9 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1652,6 +1663,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -1661,7 +1679,273 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -2349,59 +2633,59 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:N618" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A3:N618" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A3:N618">
     <filterColumn colId="1">
       <filters>
-        <filter val="محمد صابر"/>
+        <filter val="سيد ياسين"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="م" dataDxfId="43"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="42"/>
-    <tableColumn id="3" name="التاريخ" dataDxfId="41"/>
-    <tableColumn id="4" name="رقم الايصال" dataDxfId="40"/>
-    <tableColumn id="5" name="العدد" dataDxfId="39"/>
-    <tableColumn id="6" name="الفئة" dataDxfId="38"/>
-    <tableColumn id="7" name="السعر" dataDxfId="37"/>
-    <tableColumn id="14" name="خصم" dataDxfId="36"/>
-    <tableColumn id="13" name="مصاريف اخرى" dataDxfId="35"/>
-    <tableColumn id="8" name="الكمية" dataDxfId="34">
+    <tableColumn id="1" name="م" dataDxfId="53"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="52"/>
+    <tableColumn id="3" name="التاريخ" dataDxfId="51"/>
+    <tableColumn id="4" name="رقم الايصال" dataDxfId="50"/>
+    <tableColumn id="5" name="العدد" dataDxfId="49"/>
+    <tableColumn id="6" name="الفئة" dataDxfId="48"/>
+    <tableColumn id="7" name="السعر" dataDxfId="47"/>
+    <tableColumn id="14" name="خصم" dataDxfId="46"/>
+    <tableColumn id="13" name="مصاريف اخرى" dataDxfId="45"/>
+    <tableColumn id="8" name="الكمية" dataDxfId="44">
       <calculatedColumnFormula>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="الاجمالي" dataDxfId="33">
+    <tableColumn id="9" name="الاجمالي" dataDxfId="43">
       <calculatedColumnFormula>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="المبلغ المدفوع" dataDxfId="32"/>
-    <tableColumn id="11" name="متبقي" dataDxfId="31">
+    <tableColumn id="10" name="المبلغ المدفوع" dataDxfId="42"/>
+    <tableColumn id="11" name="متبقي" dataDxfId="41">
       <calculatedColumnFormula>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="ملاحظات" dataDxfId="30"/>
+    <tableColumn id="12" name="ملاحظات" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G26" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A3:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:G22" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A3:G22"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="م" dataDxfId="26"/>
-    <tableColumn id="2" name="التاريخ " dataDxfId="25"/>
-    <tableColumn id="3" name="رقم الايصال" dataDxfId="24"/>
-    <tableColumn id="4" name="توريد بضاعة" dataDxfId="23"/>
-    <tableColumn id="5" name="المبلغ المستلم" dataDxfId="22"/>
-    <tableColumn id="6" name="متبقي" dataDxfId="21"/>
-    <tableColumn id="7" name="ملاحظات" dataDxfId="20"/>
+    <tableColumn id="1" name="م" dataDxfId="6"/>
+    <tableColumn id="2" name="التاريخ " dataDxfId="5"/>
+    <tableColumn id="3" name="رقم الايصال" dataDxfId="4"/>
+    <tableColumn id="4" name="توريد بضاعة" dataDxfId="3"/>
+    <tableColumn id="5" name="المبلغ المستلم" dataDxfId="2"/>
+    <tableColumn id="6" name="متبقي" dataDxfId="1"/>
+    <tableColumn id="7" name="ملاحظات" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A3:G13" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A3:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G35" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A3:G35"/>
   <tableColumns count="7">
     <tableColumn id="1" name="م" dataDxfId="16"/>
     <tableColumn id="2" name="التاريخ " dataDxfId="15"/>
@@ -2416,16 +2700,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A3:G15" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A3:G15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A3:G13" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="A3:G13"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="م" dataDxfId="6"/>
-    <tableColumn id="2" name="التاريخ " dataDxfId="5"/>
-    <tableColumn id="3" name="رقم الايصال" dataDxfId="4"/>
-    <tableColumn id="4" name="توريد بضاعة" dataDxfId="3"/>
-    <tableColumn id="5" name="المبلغ المستلم" dataDxfId="2"/>
-    <tableColumn id="6" name="متبقي" dataDxfId="1"/>
-    <tableColumn id="7" name="ملاحظات" dataDxfId="0"/>
+    <tableColumn id="1" name="م" dataDxfId="36"/>
+    <tableColumn id="2" name="التاريخ " dataDxfId="35"/>
+    <tableColumn id="3" name="رقم الايصال" dataDxfId="34"/>
+    <tableColumn id="4" name="توريد بضاعة" dataDxfId="33"/>
+    <tableColumn id="5" name="المبلغ المستلم" dataDxfId="32"/>
+    <tableColumn id="6" name="متبقي" dataDxfId="31"/>
+    <tableColumn id="7" name="ملاحظات" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A3:G17" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28">
+  <autoFilter ref="A3:G17"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="م" dataDxfId="26"/>
+    <tableColumn id="2" name="التاريخ " dataDxfId="25"/>
+    <tableColumn id="3" name="رقم الايصال" dataDxfId="24"/>
+    <tableColumn id="4" name="توريد بضاعة" dataDxfId="23"/>
+    <tableColumn id="5" name="المبلغ المستلم" dataDxfId="22"/>
+    <tableColumn id="6" name="متبقي" dataDxfId="21"/>
+    <tableColumn id="7" name="ملاحظات" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2724,11 +3024,11 @@
   </sheetPr>
   <dimension ref="A1:N618"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A198" sqref="A198:N200"/>
+      <selection pane="bottomRight" activeCell="K460" sqref="K460:K461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2753,15 +3053,15 @@
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K2" s="53">
         <f>SUBTOTAL(9,Table5[الاجمالي])</f>
-        <v>377187</v>
+        <v>545970</v>
       </c>
       <c r="L2" s="53">
         <f>SUBTOTAL(9,Table5[المبلغ المدفوع])</f>
-        <v>41875</v>
+        <v>19000</v>
       </c>
       <c r="M2" s="53">
         <f>SUBTOTAL(9,Table5[متبقي])</f>
-        <v>335312</v>
+        <v>526970</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5212,7 +5512,7 @@
       </c>
       <c r="N67" s="60"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="52">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5714,7 +6014,7 @@
       </c>
       <c r="N81" s="60"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="52">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -5932,7 +6232,7 @@
       </c>
       <c r="N87" s="60"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="52">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -6429,7 +6729,7 @@
       </c>
       <c r="N101" s="60"/>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="52">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -7629,7 +7929,7 @@
       </c>
       <c r="N135" s="60"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="52">
         <f t="shared" si="0"/>
         <v>133</v>
@@ -7989,8 +8289,8 @@
       <c r="D145" s="55">
         <v>254</v>
       </c>
-      <c r="E145" s="62">
-        <v>600</v>
+      <c r="E145" s="58">
+        <v>500</v>
       </c>
       <c r="F145" s="59">
         <v>5</v>
@@ -8002,16 +8302,16 @@
       <c r="I145" s="57"/>
       <c r="J145" s="57">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K145" s="57">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="L145" s="57"/>
       <c r="M145" s="57">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="N145" s="60"/>
     </row>
@@ -8417,7 +8717,7 @@
       </c>
       <c r="N156" s="60"/>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="52">
         <f t="shared" si="0"/>
         <v>154</v>
@@ -8460,7 +8760,7 @@
       </c>
       <c r="N157" s="60"/>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="52">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -9950,7 +10250,7 @@
       </c>
       <c r="N197" s="60"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="52">
         <f t="shared" si="0"/>
         <v>195</v>
@@ -9990,7 +10290,7 @@
       </c>
       <c r="N198" s="60"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="52">
         <f t="shared" si="0"/>
         <v>196</v>
@@ -10030,7 +10330,7 @@
       </c>
       <c r="N199" s="60"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="52">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -10255,7 +10555,7 @@
       </c>
       <c r="N205" s="60"/>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="52">
         <f t="shared" si="1"/>
         <v>203</v>
@@ -11429,7 +11729,7 @@
       </c>
       <c r="N238" s="60"/>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="52">
         <f t="shared" si="0"/>
         <v>236</v>
@@ -11497,7 +11797,7 @@
       </c>
       <c r="N240" s="60"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="52">
         <f t="shared" si="0"/>
         <v>238</v>
@@ -11537,7 +11837,7 @@
       </c>
       <c r="N241" s="60"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="52">
         <f t="shared" si="0"/>
         <v>239</v>
@@ -11577,7 +11877,7 @@
       </c>
       <c r="N242" s="60"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="52">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -11707,7 +12007,7 @@
       </c>
       <c r="N246" s="60"/>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="52">
         <f t="shared" si="0"/>
         <v>244</v>
@@ -11747,7 +12047,7 @@
       </c>
       <c r="N247" s="60"/>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="52">
         <f t="shared" si="0"/>
         <v>245</v>
@@ -13564,7 +13864,7 @@
       </c>
       <c r="N296" s="60"/>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="52">
         <f t="shared" si="3"/>
         <v>294</v>
@@ -13604,7 +13904,7 @@
       </c>
       <c r="N297" s="60"/>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="52">
         <f t="shared" si="3"/>
         <v>295</v>
@@ -13644,7 +13944,7 @@
       </c>
       <c r="N298" s="60"/>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="52">
         <f t="shared" si="3"/>
         <v>296</v>
@@ -14847,7 +15147,7 @@
       </c>
       <c r="N332" s="60"/>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="52">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -14887,7 +15187,7 @@
       </c>
       <c r="N333" s="60"/>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="52">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -14927,7 +15227,7 @@
       </c>
       <c r="N334" s="60"/>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="52">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -15152,7 +15452,7 @@
       </c>
       <c r="N340" s="60"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="52">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -15192,7 +15492,7 @@
       </c>
       <c r="N341" s="60"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="52">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -15232,43 +15532,31 @@
       </c>
       <c r="N342" s="60"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="52">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
-      <c r="B343" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C343" s="76">
-        <v>45345</v>
-      </c>
-      <c r="D343" s="75">
-        <v>318</v>
-      </c>
-      <c r="E343" s="60">
-        <v>10</v>
-      </c>
-      <c r="F343" s="77">
-        <v>5</v>
-      </c>
-      <c r="G343" s="60">
-        <v>40</v>
-      </c>
+      <c r="B343" s="75"/>
+      <c r="C343" s="76"/>
+      <c r="D343" s="75"/>
+      <c r="E343" s="60"/>
+      <c r="F343" s="77"/>
+      <c r="G343" s="60"/>
       <c r="H343" s="60"/>
       <c r="I343" s="60"/>
       <c r="J343" s="78">
         <f>Table5[[#This Row],[العدد]]*Table5[[#This Row],[الفئة]]</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K343" s="78">
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="L343" s="60"/>
       <c r="M343" s="60">
         <f>Table5[[#This Row],[الاجمالي]]-Table5[[#This Row],[المبلغ المدفوع]]</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N343" s="60"/>
     </row>
@@ -19362,7 +19650,7 @@
       </c>
       <c r="N455" s="60"/>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="52">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -19402,7 +19690,7 @@
       </c>
       <c r="N456" s="60"/>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="52">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -19442,7 +19730,7 @@
       </c>
       <c r="N457" s="60"/>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="52">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -19510,7 +19798,7 @@
       </c>
       <c r="N459" s="60"/>
     </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" s="52">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -19550,7 +19838,7 @@
       </c>
       <c r="N460" s="60"/>
     </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" s="52">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -20771,7 +21059,7 @@
       <c r="B495" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C495" s="85">
+      <c r="C495" s="81">
         <v>45361</v>
       </c>
       <c r="D495" s="75">
@@ -20790,7 +21078,7 @@
         <f>IF(Table5[[#This Row],[الفئة]]=0.8,Table5[[#This Row],[السعر]]*Table5[[#This Row],[العدد]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],IF(Table5[[#This Row],[الفئة]]=1.6,Table5[[#This Row],[العدد]]*2*Table5[[#This Row],[السعر]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]],Table5[[#This Row],[السعر]]*Table5[[#This Row],[الكمية]]+Table5[[#This Row],[مصاريف اخرى]]-Table5[[#This Row],[خصم]]))</f>
         <v>0</v>
       </c>
-      <c r="L495" s="86">
+      <c r="L495" s="82">
         <v>9000</v>
       </c>
       <c r="M495" s="60">
@@ -21043,7 +21331,7 @@
       </c>
       <c r="N502" s="60"/>
     </row>
-    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" s="52">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -21083,7 +21371,7 @@
       </c>
       <c r="N503" s="60"/>
     </row>
-    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" s="52">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -24419,10 +24707,424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="89"/>
+    </row>
+    <row r="4" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45281</v>
+      </c>
+      <c r="C4" s="5">
+        <v>216</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5432</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <f>D4-E4</f>
+        <v>5432</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="11">
+        <f>F4+D5-E5</f>
+        <v>5432</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <f t="shared" ref="A6:A21" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45292</v>
+      </c>
+      <c r="C6" s="5">
+        <v>230</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31152</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <f>F5+D6-E6</f>
+        <v>36584</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <f t="shared" ref="F7:F21" si="1">F6+D7-E7</f>
+        <v>36584</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45310</v>
+      </c>
+      <c r="C8" s="5">
+        <v>235</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18000</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>54584</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>54584</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45315</v>
+      </c>
+      <c r="C10" s="46">
+        <v>254</v>
+      </c>
+      <c r="D10" s="48">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>154584</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11">
+        <f t="shared" si="1"/>
+        <v>154584</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45339</v>
+      </c>
+      <c r="C12" s="46">
+        <v>299</v>
+      </c>
+      <c r="D12" s="48">
+        <v>51800</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <f t="shared" si="1"/>
+        <v>206384</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>206384</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45352</v>
+      </c>
+      <c r="C14" s="46">
+        <v>357</v>
+      </c>
+      <c r="D14" s="48">
+        <v>5700</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>212084</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43">
+        <f>SUM(D4:D21)</f>
+        <v>212084</v>
+      </c>
+      <c r="E22" s="44">
+        <f>SUM(E4:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
+        <f>F21</f>
+        <v>212084</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="I22">
+        <f>Table13[[#This Row],[المبلغ المستلم]]-Table13[[#This Row],[توريد بضاعة]]</f>
+        <v>-212084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24439,20 +25141,20 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="88" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -24461,7 +25163,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
@@ -24483,8 +25185,12 @@
       <c r="G3" s="51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="I3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -24504,7 +25210,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>A4+1</f>
         <v>2</v>
@@ -24525,7 +25231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f t="shared" ref="A6:A8" si="0">A5+1</f>
         <v>3</v>
@@ -24540,7 +25246,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -24556,12 +25262,12 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
-        <f t="shared" ref="F7:F25" si="1">F6+D7-E7</f>
+        <f t="shared" ref="F7:F34" si="1">F6+D7-E7</f>
         <v>19000</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -24576,9 +25282,9 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <f t="shared" ref="A9:A25" si="2">A8+1</f>
+        <f t="shared" ref="A9:A34" si="2">A8+1</f>
         <v>6</v>
       </c>
       <c r="B9" s="47">
@@ -24597,7 +25303,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -24618,7 +25324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -24633,7 +25339,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -24654,7 +25360,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -24669,7 +25375,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -24690,7 +25396,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -24711,7 +25417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -24828,7 +25534,7 @@
       <c r="C22" s="46"/>
       <c r="D22" s="48"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="1"/>
         <v>96850</v>
       </c>
@@ -24843,7 +25549,7 @@
       <c r="C23" s="46"/>
       <c r="D23" s="48"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>96850</v>
       </c>
@@ -24854,61 +25560,212 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="47">
+        <v>45352</v>
+      </c>
+      <c r="C24" s="46">
+        <v>354</v>
+      </c>
+      <c r="D24" s="48">
+        <v>87600</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
-        <v>96850</v>
+        <v>184450</v>
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="11">
+      <c r="B25" s="47"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>96850</v>
-      </c>
-      <c r="G25" s="13"/>
+        <v>184450</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="9">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>184450</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>184450</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="47">
+        <v>45329</v>
+      </c>
+      <c r="C28" s="46">
+        <v>370</v>
+      </c>
+      <c r="D28" s="48">
+        <v>41520</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="10">
+        <f t="shared" si="1"/>
+        <v>225970</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43">
-        <f>SUM(D4:D25)</f>
-        <v>416850</v>
-      </c>
-      <c r="E26" s="44">
-        <f>SUM(E4:E25)</f>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43">
+        <f>SUM(D4:D34)</f>
+        <v>545970</v>
+      </c>
+      <c r="E35" s="44">
+        <f>SUM(E4:E34)</f>
         <v>320000</v>
       </c>
-      <c r="F26" s="44">
-        <f>F25</f>
-        <v>96850</v>
-      </c>
-      <c r="G26" s="45"/>
+      <c r="F35" s="44">
+        <f>F34</f>
+        <v>225970</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35">
+        <f>Table1[[#This Row],[المبلغ المستلم]]-Table1[[#This Row],[توريد بضاعة]]</f>
+        <v>-225970</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:R11"/>
   <sheetViews>
@@ -25257,18 +26114,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25282,7 +26139,7 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -25293,7 +26150,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -25302,7 +26159,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -25324,8 +26181,12 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="I3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -25345,7 +26206,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>A4+1</f>
         <v>2</v>
@@ -25364,7 +26225,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f t="shared" ref="A6:A35" si="0">A5+1</f>
         <v>3</v>
@@ -25383,7 +26244,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25402,7 +26263,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -25417,7 +26278,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -25438,7 +26299,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -25457,7 +26318,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -25476,7 +26337,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -25491,7 +26352,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -25512,7 +26373,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -25531,7 +26392,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -25550,7 +26411,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -25731,12 +26592,12 @@
         <v>318</v>
       </c>
       <c r="D25" s="7">
-        <v>72300</v>
+        <v>70300</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
-        <v>103771</v>
+        <v>101771</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -25755,7 +26616,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>61771</v>
+        <v>59771</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -25774,7 +26635,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
-        <v>51771</v>
+        <v>49771</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -25793,7 +26654,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
-        <v>35771</v>
+        <v>33771</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -25814,7 +26675,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
-        <v>71791</v>
+        <v>69791</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -25823,7 +26684,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="87">
+      <c r="B30" s="83">
         <v>45354</v>
       </c>
       <c r="C30" s="9"/>
@@ -25833,7 +26694,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
-        <v>52791</v>
+        <v>50791</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -25842,7 +26703,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="87">
+      <c r="B31" s="83">
         <v>45357</v>
       </c>
       <c r="C31" s="9"/>
@@ -25852,7 +26713,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
-        <v>37791</v>
+        <v>35791</v>
       </c>
       <c r="G31" s="13"/>
     </row>
@@ -25861,7 +26722,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="87">
+      <c r="B32" s="83">
         <v>45361</v>
       </c>
       <c r="C32" s="9"/>
@@ -25871,7 +26732,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
-        <v>24791</v>
+        <v>22791</v>
       </c>
       <c r="G32" s="13"/>
     </row>
@@ -25880,13 +26741,13 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="87"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="9"/>
       <c r="D33" s="11"/>
       <c r="E33" s="17"/>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
-        <v>24791</v>
+        <v>22791</v>
       </c>
       <c r="G33" s="13"/>
     </row>
@@ -25895,13 +26756,13 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="9"/>
       <c r="D34" s="11"/>
       <c r="E34" s="17"/>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
-        <v>24791</v>
+        <v>22791</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -25916,19 +26777,19 @@
       <c r="E35" s="17"/>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
-        <v>24791</v>
+        <v>22791</v>
       </c>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="18">
         <f>SUM(D4:D35)</f>
-        <v>335687</v>
+        <v>333687</v>
       </c>
       <c r="E36" s="19">
         <f>SUM(E4:E35)</f>
@@ -25936,12 +26797,12 @@
       </c>
       <c r="F36" s="19">
         <f>F35</f>
-        <v>24791</v>
+        <v>22791</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="21">
         <f>D36-E36</f>
-        <v>24791</v>
+        <v>22791</v>
       </c>
     </row>
   </sheetData>
@@ -25953,7 +26814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -26201,12 +27062,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26223,20 +27090,20 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="88" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -26245,7 +27112,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
@@ -26267,8 +27134,12 @@
       <c r="G3" s="51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="I3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -26288,7 +27159,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f>A4+1</f>
         <v>2</v>
@@ -26305,9 +27176,9 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <f t="shared" ref="A6:A14" si="0">A5+1</f>
+        <f t="shared" ref="A6:A16" si="0">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="6">
@@ -26326,7 +27197,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -26338,12 +27209,12 @@
         <v>105000</v>
       </c>
       <c r="F7" s="10">
-        <f t="shared" ref="F7:F14" si="1">F6+D7-E7</f>
+        <f t="shared" ref="F7:F16" si="1">F6+D7-E7</f>
         <v>232500</v>
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -26358,7 +27229,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -26379,7 +27250,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -26396,7 +27267,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -26417,7 +27288,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -26432,66 +27303,110 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="47">
+        <v>45352</v>
+      </c>
+      <c r="C13" s="46">
+        <v>352</v>
+      </c>
+      <c r="D13" s="48">
+        <v>15400</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>251777</v>
+        <v>267177</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14">
+        <v>45357</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>100000</v>
+      </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>251777</v>
+        <v>167177</v>
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>167177</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>167177</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43">
-        <f>SUM(D4:D14)</f>
-        <v>392277</v>
-      </c>
-      <c r="E15" s="44">
-        <f>SUM(E4:E14)</f>
-        <v>140500</v>
-      </c>
-      <c r="F15" s="44">
-        <f>F14</f>
-        <v>251777</v>
-      </c>
-      <c r="G15" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43">
+        <f>SUM(D4:D16)</f>
+        <v>407677</v>
+      </c>
+      <c r="E17" s="44">
+        <f>SUM(E4:E16)</f>
+        <v>240500</v>
+      </c>
+      <c r="F17" s="44">
+        <f>F16</f>
+        <v>167177</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17">
+        <f>Table14[[#This Row],[توريد بضاعة]]-Table14[[#This Row],[المبلغ المستلم]]</f>
+        <v>167177</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O123"/>
   <sheetViews>
@@ -26542,11 +27457,11 @@
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
-      <c r="N3" s="83">
+      <c r="N3" s="86">
         <f>N4+O4</f>
         <v>2227432</v>
       </c>
-      <c r="O3" s="84"/>
+      <c r="O3" s="87"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
